--- a/tools/data_excel/donnees_niveau_1.xlsx
+++ b/tools/data_excel/donnees_niveau_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaelletomkeu-dassy/Documents/L3/PRAG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annaelletomkeu-dassy/Documents/L3/PRAG/PRAG-eMortels/tools/data_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23659501-FDD3-0B4E-893A-6F03D6611608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E52191F-216B-A84D-9766-E32E9ED983FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8300" yWindow="500" windowWidth="20500" windowHeight="16440" xr2:uid="{1D858C85-1070-49E3-8823-E39A4997B48A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="705">
   <si>
     <t>updaterThème / Niveau / Exercice n°</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corrigé </t>
   </si>
   <si>
     <t>Règle / explications</t>
@@ -14556,7 +14553,7 @@
   <dimension ref="A1:G903"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14579,20 +14576,21 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1" t="e">
+        <f>Corrige</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -14603,27 +14601,27 @@
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>10</v>
       </c>
       <c r="G3" s="50"/>
     </row>
     <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A4" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="55"/>
       <c r="D4" s="55"/>
@@ -14633,31 +14631,31 @@
     </row>
     <row r="5" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="55"/>
       <c r="D5" s="55"/>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="57"/>
       <c r="G5" s="50"/>
     </row>
-    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A6" s="49"/>
       <c r="B6" s="4"/>
       <c r="C6" s="55"/>
       <c r="D6" s="55"/>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="57"/>
       <c r="G6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="55"/>
@@ -14688,10 +14686,10 @@
       <c r="A10" s="48"/>
       <c r="B10" s="52"/>
       <c r="C10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="52"/>
       <c r="F10" s="52"/>
@@ -14701,10 +14699,10 @@
       <c r="A11" s="51"/>
       <c r="B11" s="53"/>
       <c r="C11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="53"/>
@@ -14714,10 +14712,10 @@
       <c r="A12" s="48"/>
       <c r="B12" s="52"/>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="52"/>
@@ -14727,10 +14725,10 @@
       <c r="A13" s="51"/>
       <c r="B13" s="53"/>
       <c r="C13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
@@ -14740,10 +14738,10 @@
       <c r="A14" s="48"/>
       <c r="B14" s="52"/>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="52"/>
@@ -14753,10 +14751,10 @@
       <c r="A15" s="51"/>
       <c r="B15" s="53"/>
       <c r="C15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
@@ -14766,10 +14764,10 @@
       <c r="A16" s="48"/>
       <c r="B16" s="52"/>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="52"/>
@@ -14779,10 +14777,10 @@
       <c r="A17" s="51"/>
       <c r="B17" s="53"/>
       <c r="C17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
@@ -14792,10 +14790,10 @@
       <c r="A18" s="48"/>
       <c r="B18" s="52"/>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="52"/>
       <c r="F18" s="52"/>
@@ -14805,10 +14803,10 @@
       <c r="A19" s="51"/>
       <c r="B19" s="53"/>
       <c r="C19" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
@@ -14816,7 +14814,7 @@
     </row>
     <row r="20" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="46"/>
       <c r="C20" s="46"/>
@@ -14827,45 +14825,45 @@
     </row>
     <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
       <c r="E21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="56" t="s">
         <v>9</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>10</v>
       </c>
       <c r="G21" s="50"/>
     </row>
     <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A22" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C22" s="55"/>
       <c r="D22" s="55"/>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="50"/>
     </row>
-    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A23" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="50"/>
@@ -14881,7 +14879,7 @@
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="55"/>
@@ -14912,10 +14910,10 @@
       <c r="A28" s="48"/>
       <c r="B28" s="52"/>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="52"/>
       <c r="F28" s="52"/>
@@ -14925,10 +14923,10 @@
       <c r="A29" s="51"/>
       <c r="B29" s="53"/>
       <c r="C29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
@@ -14938,10 +14936,10 @@
       <c r="A30" s="48"/>
       <c r="B30" s="52"/>
       <c r="C30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -14951,10 +14949,10 @@
       <c r="A31" s="51"/>
       <c r="B31" s="53"/>
       <c r="C31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
@@ -14964,10 +14962,10 @@
       <c r="A32" s="48"/>
       <c r="B32" s="52"/>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="52"/>
       <c r="F32" s="52"/>
@@ -14977,10 +14975,10 @@
       <c r="A33" s="51"/>
       <c r="B33" s="53"/>
       <c r="C33" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
@@ -14990,10 +14988,10 @@
       <c r="A34" s="48"/>
       <c r="B34" s="52"/>
       <c r="C34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E34" s="52"/>
       <c r="F34" s="52"/>
@@ -15003,10 +15001,10 @@
       <c r="A35" s="51"/>
       <c r="B35" s="53"/>
       <c r="C35" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E35" s="53"/>
       <c r="F35" s="53"/>
@@ -15016,10 +15014,10 @@
       <c r="A36" s="48"/>
       <c r="B36" s="52"/>
       <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52"/>
@@ -15029,10 +15027,10 @@
       <c r="A37" s="51"/>
       <c r="B37" s="53"/>
       <c r="C37" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
@@ -15040,7 +15038,7 @@
     </row>
     <row r="38" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="46"/>
       <c r="C38" s="46"/>
@@ -15051,32 +15049,32 @@
     </row>
     <row r="39" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A39" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C39" s="52"/>
       <c r="D39" s="52"/>
       <c r="E39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="56" t="s">
         <v>50</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>51</v>
       </c>
       <c r="G39" s="50"/>
     </row>
     <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="C40" s="55"/>
       <c r="D40" s="55"/>
       <c r="E40" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="57"/>
       <c r="G40" s="50"/>
@@ -15092,7 +15090,7 @@
     </row>
     <row r="42" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="55"/>
@@ -15123,10 +15121,10 @@
       <c r="A45" s="59"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
@@ -15136,10 +15134,10 @@
       <c r="A46" s="59"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
@@ -15149,10 +15147,10 @@
       <c r="A47" s="59"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
@@ -15162,10 +15160,10 @@
       <c r="A48" s="59"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
@@ -15175,10 +15173,10 @@
       <c r="A49" s="59"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
@@ -15186,7 +15184,7 @@
     </row>
     <row r="50" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" s="46"/>
       <c r="C50" s="46"/>
@@ -15197,32 +15195,32 @@
     </row>
     <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A51" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C51" s="52"/>
       <c r="D51" s="52"/>
       <c r="E51" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" s="56" t="s">
         <v>50</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>51</v>
       </c>
       <c r="G51" s="50"/>
     </row>
     <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A52" s="49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="55"/>
       <c r="D52" s="55"/>
       <c r="E52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F52" s="57"/>
       <c r="G52" s="50"/>
@@ -15238,7 +15236,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="55"/>
@@ -15269,10 +15267,10 @@
       <c r="A57" s="59"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
@@ -15282,10 +15280,10 @@
       <c r="A58" s="59"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>68</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>69</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
@@ -15295,10 +15293,10 @@
       <c r="A59" s="59"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
@@ -15308,10 +15306,10 @@
       <c r="A60" s="59"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
@@ -15321,17 +15319,17 @@
       <c r="A61" s="59"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="46"/>
       <c r="C62" s="46"/>
@@ -15342,32 +15340,32 @@
     </row>
     <row r="63" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C63" s="52"/>
       <c r="D63" s="52"/>
       <c r="E63" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F63" s="56" t="s">
         <v>78</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>79</v>
       </c>
       <c r="G63" s="50"/>
     </row>
     <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A64" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="C64" s="55"/>
       <c r="D64" s="55"/>
       <c r="E64" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F64" s="57"/>
       <c r="G64" s="50"/>
@@ -15378,14 +15376,14 @@
       <c r="C65" s="55"/>
       <c r="D65" s="55"/>
       <c r="E65" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F65" s="57"/>
       <c r="G65" s="50"/>
     </row>
     <row r="66" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="55"/>
@@ -15400,20 +15398,20 @@
       <c r="C67" s="55"/>
       <c r="D67" s="55"/>
       <c r="E67" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F67" s="57"/>
       <c r="G67" s="50"/>
     </row>
     <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="55"/>
       <c r="D68" s="55"/>
       <c r="E68" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F68" s="57"/>
       <c r="G68" s="50"/>
@@ -15424,7 +15422,7 @@
       <c r="C69" s="53"/>
       <c r="D69" s="53"/>
       <c r="E69" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F69" s="58"/>
       <c r="G69" s="50"/>
@@ -15433,10 +15431,10 @@
       <c r="A70" s="59"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="7"/>
@@ -15446,23 +15444,23 @@
       <c r="A71" s="59"/>
       <c r="B71" s="7"/>
       <c r="C71" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D71" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="7"/>
       <c r="G71" s="2"/>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A72" s="48"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E72" s="60"/>
       <c r="F72" s="52"/>
@@ -15473,7 +15471,7 @@
       <c r="B73" s="53"/>
       <c r="C73" s="53"/>
       <c r="D73" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E73" s="61"/>
       <c r="F73" s="53"/>
@@ -15483,10 +15481,10 @@
       <c r="A74" s="59"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="7"/>
@@ -15496,10 +15494,10 @@
       <c r="A75" s="48"/>
       <c r="B75" s="52"/>
       <c r="C75" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E75" s="60"/>
       <c r="F75" s="52"/>
@@ -15510,7 +15508,7 @@
       <c r="B76" s="53"/>
       <c r="C76" s="53"/>
       <c r="D76" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" s="61"/>
       <c r="F76" s="53"/>
@@ -15518,7 +15516,7 @@
     </row>
     <row r="77" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" s="46"/>
       <c r="C77" s="46"/>
@@ -15527,34 +15525,34 @@
       <c r="F77" s="47"/>
       <c r="G77" s="2"/>
     </row>
-    <row r="78" spans="1:7" ht="150" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="165" x14ac:dyDescent="0.2">
       <c r="A78" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
       <c r="E78" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F78" s="56" t="s">
         <v>98</v>
-      </c>
-      <c r="F78" s="56" t="s">
-        <v>99</v>
       </c>
       <c r="G78" s="50"/>
     </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A79" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C79" s="55"/>
       <c r="D79" s="55"/>
       <c r="E79" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F79" s="57"/>
       <c r="G79" s="50"/>
@@ -15570,7 +15568,7 @@
     </row>
     <row r="81" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="55"/>
@@ -15590,7 +15588,7 @@
     </row>
     <row r="83" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="53"/>
@@ -15603,10 +15601,10 @@
       <c r="A84" s="59"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D84" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="7"/>
@@ -15616,10 +15614,10 @@
       <c r="A85" s="59"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="7"/>
@@ -15629,10 +15627,10 @@
       <c r="A86" s="59"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="7"/>
@@ -15642,10 +15640,10 @@
       <c r="A87" s="48"/>
       <c r="B87" s="52"/>
       <c r="C87" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E87" s="64"/>
       <c r="F87" s="52"/>
@@ -15656,7 +15654,7 @@
       <c r="B88" s="53"/>
       <c r="C88" s="53"/>
       <c r="D88" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E88" s="65"/>
       <c r="F88" s="53"/>
@@ -15666,10 +15664,10 @@
       <c r="A89" s="48"/>
       <c r="B89" s="52"/>
       <c r="C89" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E89" s="64"/>
       <c r="F89" s="52"/>
@@ -15680,7 +15678,7 @@
       <c r="B90" s="53"/>
       <c r="C90" s="53"/>
       <c r="D90" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90" s="65"/>
       <c r="F90" s="53"/>
@@ -15688,7 +15686,7 @@
     </row>
     <row r="91" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" s="46"/>
       <c r="C91" s="46"/>
@@ -15699,27 +15697,27 @@
     </row>
     <row r="92" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="52"/>
       <c r="D92" s="52"/>
       <c r="E92" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" s="56" t="s">
         <v>112</v>
-      </c>
-      <c r="F92" s="56" t="s">
-        <v>113</v>
       </c>
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C93" s="55"/>
       <c r="D93" s="55"/>
@@ -15738,7 +15736,7 @@
     </row>
     <row r="95" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="55"/>
@@ -15758,7 +15756,7 @@
     </row>
     <row r="97" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="53"/>
@@ -15771,10 +15769,10 @@
       <c r="A98" s="48"/>
       <c r="B98" s="52"/>
       <c r="C98" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E98" s="64"/>
       <c r="F98" s="52"/>
@@ -15784,10 +15782,10 @@
       <c r="A99" s="49"/>
       <c r="B99" s="55"/>
       <c r="C99" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D99" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="E99" s="66"/>
       <c r="F99" s="55"/>
@@ -15797,10 +15795,10 @@
       <c r="A100" s="49"/>
       <c r="B100" s="55"/>
       <c r="C100" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" s="66"/>
       <c r="F100" s="55"/>
@@ -15810,10 +15808,10 @@
       <c r="A101" s="51"/>
       <c r="B101" s="53"/>
       <c r="C101" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E101" s="65"/>
       <c r="F101" s="53"/>
@@ -15823,10 +15821,10 @@
       <c r="A102" s="48"/>
       <c r="B102" s="52"/>
       <c r="C102" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E102" s="64"/>
       <c r="F102" s="52"/>
@@ -15836,10 +15834,10 @@
       <c r="A103" s="49"/>
       <c r="B103" s="55"/>
       <c r="C103" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D103" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D103" s="17" t="s">
-        <v>119</v>
       </c>
       <c r="E103" s="66"/>
       <c r="F103" s="55"/>
@@ -15849,10 +15847,10 @@
       <c r="A104" s="49"/>
       <c r="B104" s="55"/>
       <c r="C104" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E104" s="66"/>
       <c r="F104" s="55"/>
@@ -15862,10 +15860,10 @@
       <c r="A105" s="51"/>
       <c r="B105" s="53"/>
       <c r="C105" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E105" s="65"/>
       <c r="F105" s="53"/>
@@ -15875,10 +15873,10 @@
       <c r="A106" s="48"/>
       <c r="B106" s="52"/>
       <c r="C106" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E106" s="64"/>
       <c r="F106" s="52"/>
@@ -15888,10 +15886,10 @@
       <c r="A107" s="49"/>
       <c r="B107" s="55"/>
       <c r="C107" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="E107" s="66"/>
       <c r="F107" s="55"/>
@@ -15901,10 +15899,10 @@
       <c r="A108" s="51"/>
       <c r="B108" s="53"/>
       <c r="C108" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E108" s="65"/>
       <c r="F108" s="53"/>
@@ -15914,10 +15912,10 @@
       <c r="A109" s="48"/>
       <c r="B109" s="52"/>
       <c r="C109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E109" s="64"/>
       <c r="F109" s="52"/>
@@ -15927,10 +15925,10 @@
       <c r="A110" s="49"/>
       <c r="B110" s="55"/>
       <c r="C110" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="D110" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="E110" s="66"/>
       <c r="F110" s="55"/>
@@ -15940,10 +15938,10 @@
       <c r="A111" s="49"/>
       <c r="B111" s="55"/>
       <c r="C111" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111" s="66"/>
       <c r="F111" s="55"/>
@@ -15953,10 +15951,10 @@
       <c r="A112" s="51"/>
       <c r="B112" s="53"/>
       <c r="C112" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E112" s="65"/>
       <c r="F112" s="53"/>
@@ -15966,10 +15964,10 @@
       <c r="A113" s="48"/>
       <c r="B113" s="52"/>
       <c r="C113" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E113" s="64"/>
       <c r="F113" s="52"/>
@@ -15979,10 +15977,10 @@
       <c r="A114" s="49"/>
       <c r="B114" s="55"/>
       <c r="C114" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D114" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="E114" s="66"/>
       <c r="F114" s="55"/>
@@ -15992,10 +15990,10 @@
       <c r="A115" s="49"/>
       <c r="B115" s="55"/>
       <c r="C115" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" s="66"/>
       <c r="F115" s="55"/>
@@ -16005,10 +16003,10 @@
       <c r="A116" s="51"/>
       <c r="B116" s="53"/>
       <c r="C116" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E116" s="65"/>
       <c r="F116" s="53"/>
@@ -16016,7 +16014,7 @@
     </row>
     <row r="117" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B117" s="46"/>
       <c r="C117" s="46"/>
@@ -16027,30 +16025,30 @@
     </row>
     <row r="118" spans="1:7" ht="77" x14ac:dyDescent="0.2">
       <c r="A118" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C118" s="52"/>
       <c r="D118" s="52"/>
       <c r="E118" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F118" s="52"/>
       <c r="G118" s="50"/>
     </row>
     <row r="119" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C119" s="55"/>
       <c r="D119" s="55"/>
       <c r="E119" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F119" s="55"/>
       <c r="G119" s="50"/>
@@ -16061,14 +16059,14 @@
       <c r="C120" s="55"/>
       <c r="D120" s="55"/>
       <c r="E120" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F120" s="55"/>
       <c r="G120" s="50"/>
     </row>
     <row r="121" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="53"/>
@@ -16081,10 +16079,10 @@
       <c r="A122" s="59"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
@@ -16094,10 +16092,10 @@
       <c r="A123" s="59"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D123" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
@@ -16107,10 +16105,10 @@
       <c r="A124" s="59"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D124" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
@@ -16120,10 +16118,10 @@
       <c r="A125" s="59"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D125" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
@@ -16133,10 +16131,10 @@
       <c r="A126" s="59"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
@@ -16144,7 +16142,7 @@
     </row>
     <row r="127" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B127" s="46"/>
       <c r="C127" s="46"/>
@@ -16155,30 +16153,30 @@
     </row>
     <row r="128" spans="1:7" ht="77" x14ac:dyDescent="0.2">
       <c r="A128" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C128" s="52"/>
       <c r="D128" s="52"/>
       <c r="E128" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F128" s="52"/>
       <c r="G128" s="50"/>
     </row>
     <row r="129" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="C129" s="55"/>
       <c r="D129" s="55"/>
       <c r="E129" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F129" s="55"/>
       <c r="G129" s="50"/>
@@ -16189,14 +16187,14 @@
       <c r="C130" s="55"/>
       <c r="D130" s="55"/>
       <c r="E130" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F130" s="55"/>
       <c r="G130" s="50"/>
     </row>
     <row r="131" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B131" s="5"/>
       <c r="C131" s="53"/>
@@ -16209,10 +16207,10 @@
       <c r="A132" s="48"/>
       <c r="B132" s="52"/>
       <c r="C132" s="52" t="s">
+        <v>153</v>
+      </c>
+      <c r="D132" s="52" t="s">
         <v>154</v>
-      </c>
-      <c r="D132" s="52" t="s">
-        <v>155</v>
       </c>
       <c r="E132" s="52"/>
       <c r="F132" s="52"/>
@@ -16231,10 +16229,10 @@
       <c r="A134" s="59"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D134" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D134" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
@@ -16244,10 +16242,10 @@
       <c r="A135" s="59"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D135" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="E135" s="7"/>
       <c r="F135" s="7"/>
@@ -16257,10 +16255,10 @@
       <c r="A136" s="48"/>
       <c r="B136" s="52"/>
       <c r="C136" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D136" s="52" t="s">
         <v>160</v>
-      </c>
-      <c r="D136" s="52" t="s">
-        <v>161</v>
       </c>
       <c r="E136" s="52"/>
       <c r="F136" s="52"/>
@@ -16279,10 +16277,10 @@
       <c r="A138" s="48"/>
       <c r="B138" s="52"/>
       <c r="C138" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D138" s="52" t="s">
         <v>162</v>
-      </c>
-      <c r="D138" s="52" t="s">
-        <v>163</v>
       </c>
       <c r="E138" s="52"/>
       <c r="F138" s="52"/>
@@ -16299,7 +16297,7 @@
     </row>
     <row r="140" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B140" s="46"/>
       <c r="C140" s="46"/>
@@ -16310,25 +16308,25 @@
     </row>
     <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A141" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C141" s="52"/>
       <c r="D141" s="52"/>
       <c r="E141" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F141" s="52"/>
       <c r="G141" s="50"/>
     </row>
     <row r="142" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="C142" s="55"/>
       <c r="D142" s="55"/>
@@ -16342,14 +16340,14 @@
       <c r="C143" s="55"/>
       <c r="D143" s="55"/>
       <c r="E143" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F143" s="55"/>
       <c r="G143" s="50"/>
     </row>
     <row r="144" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="55"/>
@@ -16364,7 +16362,7 @@
       <c r="C145" s="55"/>
       <c r="D145" s="55"/>
       <c r="E145" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F145" s="55"/>
       <c r="G145" s="50"/>
@@ -16384,7 +16382,7 @@
       <c r="C147" s="55"/>
       <c r="D147" s="55"/>
       <c r="E147" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F147" s="55"/>
       <c r="G147" s="50"/>
@@ -16404,7 +16402,7 @@
       <c r="C149" s="55"/>
       <c r="D149" s="55"/>
       <c r="E149" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F149" s="55"/>
       <c r="G149" s="50"/>
@@ -16415,7 +16413,7 @@
       <c r="C150" s="55"/>
       <c r="D150" s="55"/>
       <c r="E150" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F150" s="55"/>
       <c r="G150" s="50"/>
@@ -16426,7 +16424,7 @@
       <c r="C151" s="53"/>
       <c r="D151" s="53"/>
       <c r="E151" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F151" s="53"/>
       <c r="G151" s="50"/>
@@ -16435,10 +16433,10 @@
       <c r="A152" s="59"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D152" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="D152" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E152" s="13"/>
       <c r="F152" s="7"/>
@@ -16448,10 +16446,10 @@
       <c r="A153" s="48"/>
       <c r="B153" s="52"/>
       <c r="C153" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E153" s="60"/>
       <c r="F153" s="52"/>
@@ -16471,20 +16469,20 @@
       <c r="B155" s="53"/>
       <c r="C155" s="53"/>
       <c r="D155" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E155" s="61"/>
       <c r="F155" s="53"/>
       <c r="G155" s="50"/>
     </row>
-    <row r="156" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A156" s="48"/>
       <c r="B156" s="52"/>
       <c r="C156" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E156" s="60"/>
       <c r="F156" s="52"/>
@@ -16504,7 +16502,7 @@
       <c r="B158" s="53"/>
       <c r="C158" s="53"/>
       <c r="D158" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E158" s="61"/>
       <c r="F158" s="53"/>
@@ -16514,10 +16512,10 @@
       <c r="A159" s="59"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D159" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E159" s="13"/>
       <c r="F159" s="7"/>
@@ -16527,10 +16525,10 @@
       <c r="A160" s="48"/>
       <c r="B160" s="52"/>
       <c r="C160" s="52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D160" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>185</v>
       </c>
       <c r="E160" s="60"/>
       <c r="F160" s="52"/>
@@ -16545,12 +16543,12 @@
       <c r="F161" s="55"/>
       <c r="G161" s="50"/>
     </row>
-    <row r="162" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="51"/>
       <c r="B162" s="53"/>
       <c r="C162" s="53"/>
       <c r="D162" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E162" s="61"/>
       <c r="F162" s="53"/>
@@ -16558,7 +16556,7 @@
     </row>
     <row r="163" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B163" s="46"/>
       <c r="C163" s="46"/>
@@ -16569,25 +16567,25 @@
     </row>
     <row r="164" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A164" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C164" s="52"/>
       <c r="D164" s="52"/>
       <c r="E164" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F164" s="52"/>
       <c r="G164" s="50"/>
     </row>
     <row r="165" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="49" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165" s="55"/>
       <c r="D165" s="55"/>
@@ -16597,13 +16595,13 @@
     </row>
     <row r="166" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A166" s="49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="55"/>
       <c r="D166" s="55"/>
       <c r="E166" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F166" s="55"/>
       <c r="G166" s="50"/>
@@ -16623,7 +16621,7 @@
       <c r="C168" s="55"/>
       <c r="D168" s="55"/>
       <c r="E168" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F168" s="55"/>
       <c r="G168" s="50"/>
@@ -16643,7 +16641,7 @@
       <c r="C170" s="55"/>
       <c r="D170" s="55"/>
       <c r="E170" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F170" s="55"/>
       <c r="G170" s="50"/>
@@ -16663,7 +16661,7 @@
       <c r="C172" s="55"/>
       <c r="D172" s="55"/>
       <c r="E172" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F172" s="55"/>
       <c r="G172" s="50"/>
@@ -16674,7 +16672,7 @@
       <c r="C173" s="55"/>
       <c r="D173" s="55"/>
       <c r="E173" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F173" s="55"/>
       <c r="G173" s="50"/>
@@ -16685,7 +16683,7 @@
       <c r="C174" s="53"/>
       <c r="D174" s="53"/>
       <c r="E174" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F174" s="53"/>
       <c r="G174" s="50"/>
@@ -16694,10 +16692,10 @@
       <c r="A175" s="59"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D175" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="E175" s="13"/>
       <c r="F175" s="7"/>
@@ -16707,10 +16705,10 @@
       <c r="A176" s="48"/>
       <c r="B176" s="52"/>
       <c r="C176" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E176" s="60"/>
       <c r="F176" s="52"/>
@@ -16730,7 +16728,7 @@
       <c r="B178" s="53"/>
       <c r="C178" s="53"/>
       <c r="D178" s="21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E178" s="61"/>
       <c r="F178" s="53"/>
@@ -16740,10 +16738,10 @@
       <c r="A179" s="48"/>
       <c r="B179" s="52"/>
       <c r="C179" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E179" s="60"/>
       <c r="F179" s="52"/>
@@ -16763,7 +16761,7 @@
       <c r="B181" s="53"/>
       <c r="C181" s="53"/>
       <c r="D181" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E181" s="61"/>
       <c r="F181" s="53"/>
@@ -16773,10 +16771,10 @@
       <c r="A182" s="48"/>
       <c r="B182" s="52"/>
       <c r="C182" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="E182" s="60"/>
       <c r="F182" s="52"/>
@@ -16796,20 +16794,20 @@
       <c r="B184" s="53"/>
       <c r="C184" s="53"/>
       <c r="D184" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E184" s="61"/>
       <c r="F184" s="53"/>
       <c r="G184" s="50"/>
     </row>
-    <row r="185" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A185" s="48"/>
       <c r="B185" s="52"/>
       <c r="C185" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>200</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E185" s="60"/>
       <c r="F185" s="52"/>
@@ -16829,7 +16827,7 @@
       <c r="B187" s="53"/>
       <c r="C187" s="53"/>
       <c r="D187" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E187" s="61"/>
       <c r="F187" s="53"/>
@@ -16837,7 +16835,7 @@
     </row>
     <row r="188" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B188" s="46"/>
       <c r="C188" s="46"/>
@@ -16848,27 +16846,27 @@
     </row>
     <row r="189" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="52"/>
       <c r="E189" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F189" s="56" t="s">
         <v>203</v>
-      </c>
-      <c r="F189" s="56" t="s">
-        <v>204</v>
       </c>
       <c r="G189" s="50"/>
     </row>
     <row r="190" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B190" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="55"/>
@@ -16882,20 +16880,20 @@
       <c r="C191" s="3"/>
       <c r="D191" s="55"/>
       <c r="E191" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F191" s="57"/>
       <c r="G191" s="50"/>
     </row>
     <row r="192" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A192" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="3"/>
       <c r="D192" s="55"/>
       <c r="E192" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F192" s="57"/>
       <c r="G192" s="50"/>
@@ -16913,11 +16911,11 @@
       <c r="A194" s="67"/>
       <c r="B194" s="4"/>
       <c r="C194" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D194" s="55"/>
       <c r="E194" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F194" s="57"/>
       <c r="G194" s="50"/>
@@ -16937,7 +16935,7 @@
       <c r="C196" s="3"/>
       <c r="D196" s="55"/>
       <c r="E196" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F196" s="57"/>
       <c r="G196" s="50"/>
@@ -16957,7 +16955,7 @@
       <c r="C198" s="3"/>
       <c r="D198" s="55"/>
       <c r="E198" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F198" s="57"/>
       <c r="G198" s="50"/>
@@ -16977,7 +16975,7 @@
       <c r="C200" s="4"/>
       <c r="D200" s="55"/>
       <c r="E200" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F200" s="57"/>
       <c r="G200" s="50"/>
@@ -16997,7 +16995,7 @@
       <c r="C202" s="4"/>
       <c r="D202" s="55"/>
       <c r="E202" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F202" s="57"/>
       <c r="G202" s="50"/>
@@ -17008,7 +17006,7 @@
       <c r="C203" s="4"/>
       <c r="D203" s="55"/>
       <c r="E203" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F203" s="57"/>
       <c r="G203" s="50"/>
@@ -17019,7 +17017,7 @@
       <c r="C204" s="4"/>
       <c r="D204" s="55"/>
       <c r="E204" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F204" s="57"/>
       <c r="G204" s="50"/>
@@ -17064,10 +17062,10 @@
       <c r="A209" s="48"/>
       <c r="B209" s="52"/>
       <c r="C209" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E209" s="52"/>
       <c r="F209" s="52"/>
@@ -17077,10 +17075,10 @@
       <c r="A210" s="49"/>
       <c r="B210" s="55"/>
       <c r="C210" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D210" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E210" s="55"/>
       <c r="F210" s="55"/>
@@ -17090,10 +17088,10 @@
       <c r="A211" s="49"/>
       <c r="B211" s="55"/>
       <c r="C211" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D211" s="19" t="s">
         <v>214</v>
-      </c>
-      <c r="D211" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="E211" s="55"/>
       <c r="F211" s="55"/>
@@ -17103,10 +17101,10 @@
       <c r="A212" s="49"/>
       <c r="B212" s="55"/>
       <c r="C212" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E212" s="55"/>
       <c r="F212" s="55"/>
@@ -17126,7 +17124,7 @@
       <c r="B214" s="53"/>
       <c r="C214" s="5"/>
       <c r="D214" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E214" s="53"/>
       <c r="F214" s="53"/>
@@ -17136,10 +17134,10 @@
       <c r="A215" s="48"/>
       <c r="B215" s="52"/>
       <c r="C215" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E215" s="52"/>
       <c r="F215" s="52"/>
@@ -17149,10 +17147,10 @@
       <c r="A216" s="49"/>
       <c r="B216" s="55"/>
       <c r="C216" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D216" s="19" t="s">
         <v>219</v>
-      </c>
-      <c r="D216" s="19" t="s">
-        <v>220</v>
       </c>
       <c r="E216" s="55"/>
       <c r="F216" s="55"/>
@@ -17162,10 +17160,10 @@
       <c r="A217" s="49"/>
       <c r="B217" s="55"/>
       <c r="C217" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D217" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E217" s="55"/>
       <c r="F217" s="55"/>
@@ -17175,10 +17173,10 @@
       <c r="A218" s="51"/>
       <c r="B218" s="53"/>
       <c r="C218" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E218" s="53"/>
       <c r="F218" s="53"/>
@@ -17188,10 +17186,10 @@
       <c r="A219" s="48"/>
       <c r="B219" s="52"/>
       <c r="C219" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E219" s="52"/>
       <c r="F219" s="52"/>
@@ -17201,10 +17199,10 @@
       <c r="A220" s="49"/>
       <c r="B220" s="55"/>
       <c r="C220" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D220" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E220" s="55"/>
       <c r="F220" s="55"/>
@@ -17214,10 +17212,10 @@
       <c r="A221" s="49"/>
       <c r="B221" s="55"/>
       <c r="C221" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221" s="19" t="s">
         <v>225</v>
-      </c>
-      <c r="D221" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="E221" s="55"/>
       <c r="F221" s="55"/>
@@ -17227,10 +17225,10 @@
       <c r="A222" s="49"/>
       <c r="B222" s="55"/>
       <c r="C222" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D222" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E222" s="55"/>
       <c r="F222" s="55"/>
@@ -17240,10 +17238,10 @@
       <c r="A223" s="49"/>
       <c r="B223" s="55"/>
       <c r="C223" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E223" s="55"/>
       <c r="F223" s="55"/>
@@ -17263,7 +17261,7 @@
       <c r="B225" s="53"/>
       <c r="C225" s="5"/>
       <c r="D225" s="20" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E225" s="53"/>
       <c r="F225" s="53"/>
@@ -17273,10 +17271,10 @@
       <c r="A226" s="48"/>
       <c r="B226" s="52"/>
       <c r="C226" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E226" s="52"/>
       <c r="F226" s="52"/>
@@ -17286,10 +17284,10 @@
       <c r="A227" s="49"/>
       <c r="B227" s="55"/>
       <c r="C227" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D227" s="17" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E227" s="55"/>
       <c r="F227" s="55"/>
@@ -17299,10 +17297,10 @@
       <c r="A228" s="49"/>
       <c r="B228" s="55"/>
       <c r="C228" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="D228" s="19" t="s">
         <v>232</v>
-      </c>
-      <c r="D228" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="E228" s="55"/>
       <c r="F228" s="55"/>
@@ -17312,10 +17310,10 @@
       <c r="A229" s="49"/>
       <c r="B229" s="55"/>
       <c r="C229" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E229" s="55"/>
       <c r="F229" s="55"/>
@@ -17335,7 +17333,7 @@
       <c r="B231" s="53"/>
       <c r="C231" s="5"/>
       <c r="D231" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E231" s="53"/>
       <c r="F231" s="53"/>
@@ -17345,10 +17343,10 @@
       <c r="A232" s="48"/>
       <c r="B232" s="52"/>
       <c r="C232" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E232" s="52"/>
       <c r="F232" s="52"/>
@@ -17358,10 +17356,10 @@
       <c r="A233" s="49"/>
       <c r="B233" s="55"/>
       <c r="C233" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="D233" s="17" t="s">
         <v>237</v>
-      </c>
-      <c r="D233" s="17" t="s">
-        <v>238</v>
       </c>
       <c r="E233" s="55"/>
       <c r="F233" s="55"/>
@@ -17371,10 +17369,10 @@
       <c r="A234" s="49"/>
       <c r="B234" s="55"/>
       <c r="C234" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D234" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="D234" s="19" t="s">
-        <v>240</v>
       </c>
       <c r="E234" s="55"/>
       <c r="F234" s="55"/>
@@ -17384,10 +17382,10 @@
       <c r="A235" s="51"/>
       <c r="B235" s="53"/>
       <c r="C235" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E235" s="53"/>
       <c r="F235" s="53"/>
@@ -17395,7 +17393,7 @@
     </row>
     <row r="236" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B236" s="46"/>
       <c r="C236" s="46"/>
@@ -17406,27 +17404,27 @@
     </row>
     <row r="237" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="52"/>
       <c r="E237" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="F237" s="56" t="s">
         <v>203</v>
-      </c>
-      <c r="F237" s="56" t="s">
-        <v>204</v>
       </c>
       <c r="G237" s="50"/>
     </row>
     <row r="238" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="49" t="s">
+        <v>204</v>
+      </c>
+      <c r="B238" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>206</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="55"/>
@@ -17440,20 +17438,20 @@
       <c r="C239" s="3"/>
       <c r="D239" s="55"/>
       <c r="E239" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F239" s="57"/>
       <c r="G239" s="50"/>
     </row>
     <row r="240" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A240" s="49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="3"/>
       <c r="D240" s="55"/>
       <c r="E240" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F240" s="57"/>
       <c r="G240" s="50"/>
@@ -17471,11 +17469,11 @@
       <c r="A242" s="67"/>
       <c r="B242" s="4"/>
       <c r="C242" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D242" s="55"/>
       <c r="E242" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F242" s="57"/>
       <c r="G242" s="50"/>
@@ -17495,7 +17493,7 @@
       <c r="C244" s="3"/>
       <c r="D244" s="55"/>
       <c r="E244" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F244" s="57"/>
       <c r="G244" s="50"/>
@@ -17515,7 +17513,7 @@
       <c r="C246" s="3"/>
       <c r="D246" s="55"/>
       <c r="E246" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F246" s="57"/>
       <c r="G246" s="50"/>
@@ -17535,7 +17533,7 @@
       <c r="C248" s="4"/>
       <c r="D248" s="55"/>
       <c r="E248" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F248" s="57"/>
       <c r="G248" s="50"/>
@@ -17555,7 +17553,7 @@
       <c r="C250" s="4"/>
       <c r="D250" s="55"/>
       <c r="E250" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F250" s="57"/>
       <c r="G250" s="50"/>
@@ -17566,7 +17564,7 @@
       <c r="C251" s="4"/>
       <c r="D251" s="55"/>
       <c r="E251" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F251" s="57"/>
       <c r="G251" s="50"/>
@@ -17577,7 +17575,7 @@
       <c r="C252" s="4"/>
       <c r="D252" s="55"/>
       <c r="E252" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F252" s="57"/>
       <c r="G252" s="50"/>
@@ -17613,10 +17611,10 @@
       <c r="A256" s="48"/>
       <c r="B256" s="52"/>
       <c r="C256" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D256" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E256" s="52"/>
       <c r="F256" s="52"/>
@@ -17626,10 +17624,10 @@
       <c r="A257" s="49"/>
       <c r="B257" s="55"/>
       <c r="C257" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="D257" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="D257" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="E257" s="55"/>
       <c r="F257" s="55"/>
@@ -17639,10 +17637,10 @@
       <c r="A258" s="49"/>
       <c r="B258" s="55"/>
       <c r="C258" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D258" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E258" s="55"/>
       <c r="F258" s="55"/>
@@ -17652,10 +17650,10 @@
       <c r="A259" s="49"/>
       <c r="B259" s="55"/>
       <c r="C259" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D259" s="17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E259" s="55"/>
       <c r="F259" s="55"/>
@@ -17665,10 +17663,10 @@
       <c r="A260" s="49"/>
       <c r="B260" s="55"/>
       <c r="C260" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D260" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E260" s="55"/>
       <c r="F260" s="55"/>
@@ -17688,7 +17686,7 @@
       <c r="B262" s="53"/>
       <c r="C262" s="5"/>
       <c r="D262" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E262" s="53"/>
       <c r="F262" s="53"/>
@@ -17698,10 +17696,10 @@
       <c r="A263" s="48"/>
       <c r="B263" s="52"/>
       <c r="C263" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D263" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="D263" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="E263" s="52"/>
       <c r="F263" s="52"/>
@@ -17711,10 +17709,10 @@
       <c r="A264" s="49"/>
       <c r="B264" s="55"/>
       <c r="C264" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D264" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E264" s="55"/>
       <c r="F264" s="55"/>
@@ -17724,10 +17722,10 @@
       <c r="A265" s="49"/>
       <c r="B265" s="55"/>
       <c r="C265" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D265" s="19" t="s">
         <v>255</v>
-      </c>
-      <c r="D265" s="19" t="s">
-        <v>256</v>
       </c>
       <c r="E265" s="55"/>
       <c r="F265" s="55"/>
@@ -17737,10 +17735,10 @@
       <c r="A266" s="49"/>
       <c r="B266" s="55"/>
       <c r="C266" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E266" s="55"/>
       <c r="F266" s="55"/>
@@ -17750,10 +17748,10 @@
       <c r="A267" s="49"/>
       <c r="B267" s="55"/>
       <c r="C267" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D267" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E267" s="55"/>
       <c r="F267" s="55"/>
@@ -17773,7 +17771,7 @@
       <c r="B269" s="53"/>
       <c r="C269" s="5"/>
       <c r="D269" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E269" s="53"/>
       <c r="F269" s="53"/>
@@ -17783,10 +17781,10 @@
       <c r="A270" s="48"/>
       <c r="B270" s="52"/>
       <c r="C270" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D270" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E270" s="52"/>
       <c r="F270" s="52"/>
@@ -17796,10 +17794,10 @@
       <c r="A271" s="49"/>
       <c r="B271" s="55"/>
       <c r="C271" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D271" s="19" t="s">
         <v>260</v>
-      </c>
-      <c r="D271" s="19" t="s">
-        <v>261</v>
       </c>
       <c r="E271" s="55"/>
       <c r="F271" s="55"/>
@@ -17809,10 +17807,10 @@
       <c r="A272" s="49"/>
       <c r="B272" s="55"/>
       <c r="C272" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E272" s="55"/>
       <c r="F272" s="55"/>
@@ -17822,10 +17820,10 @@
       <c r="A273" s="49"/>
       <c r="B273" s="55"/>
       <c r="C273" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E273" s="55"/>
       <c r="F273" s="55"/>
@@ -17835,10 +17833,10 @@
       <c r="A274" s="51"/>
       <c r="B274" s="53"/>
       <c r="C274" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E274" s="53"/>
       <c r="F274" s="53"/>
@@ -17848,10 +17846,10 @@
       <c r="A275" s="48"/>
       <c r="B275" s="52"/>
       <c r="C275" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D275" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="D275" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="E275" s="52"/>
       <c r="F275" s="52"/>
@@ -17861,10 +17859,10 @@
       <c r="A276" s="49"/>
       <c r="B276" s="55"/>
       <c r="C276" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E276" s="55"/>
       <c r="F276" s="55"/>
@@ -17874,10 +17872,10 @@
       <c r="A277" s="49"/>
       <c r="B277" s="55"/>
       <c r="C277" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="D277" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="D277" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="E277" s="55"/>
       <c r="F277" s="55"/>
@@ -17887,10 +17885,10 @@
       <c r="A278" s="49"/>
       <c r="B278" s="55"/>
       <c r="C278" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E278" s="55"/>
       <c r="F278" s="55"/>
@@ -17900,10 +17898,10 @@
       <c r="A279" s="49"/>
       <c r="B279" s="55"/>
       <c r="C279" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D279" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E279" s="55"/>
       <c r="F279" s="55"/>
@@ -17923,20 +17921,20 @@
       <c r="B281" s="53"/>
       <c r="C281" s="5"/>
       <c r="D281" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E281" s="53"/>
       <c r="F281" s="53"/>
       <c r="G281" s="50"/>
     </row>
-    <row r="282" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A282" s="48"/>
       <c r="B282" s="52"/>
       <c r="C282" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D282" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E282" s="52"/>
       <c r="F282" s="52"/>
@@ -17946,10 +17944,10 @@
       <c r="A283" s="49"/>
       <c r="B283" s="55"/>
       <c r="C283" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D283" s="17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E283" s="55"/>
       <c r="F283" s="55"/>
@@ -17959,10 +17957,10 @@
       <c r="A284" s="49"/>
       <c r="B284" s="55"/>
       <c r="C284" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="D284" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="D284" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="E284" s="55"/>
       <c r="F284" s="55"/>
@@ -17972,10 +17970,10 @@
       <c r="A285" s="49"/>
       <c r="B285" s="55"/>
       <c r="C285" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E285" s="55"/>
       <c r="F285" s="55"/>
@@ -17995,7 +17993,7 @@
       <c r="B287" s="53"/>
       <c r="C287" s="5"/>
       <c r="D287" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E287" s="53"/>
       <c r="F287" s="53"/>
@@ -18003,7 +18001,7 @@
     </row>
     <row r="288" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A288" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B288" s="46"/>
       <c r="C288" s="46"/>
@@ -18014,39 +18012,39 @@
     </row>
     <row r="289" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B289" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C289" s="52"/>
       <c r="D289" s="52"/>
       <c r="E289" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F289" s="56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G289" s="50"/>
     </row>
     <row r="290" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A290" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B290" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B290" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C290" s="55"/>
       <c r="D290" s="55"/>
       <c r="E290" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F290" s="57"/>
       <c r="G290" s="50"/>
     </row>
     <row r="291" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="55"/>
@@ -18061,14 +18059,14 @@
       <c r="C292" s="55"/>
       <c r="D292" s="55"/>
       <c r="E292" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F292" s="57"/>
       <c r="G292" s="50"/>
     </row>
     <row r="293" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="55"/>
@@ -18083,7 +18081,7 @@
       <c r="C294" s="55"/>
       <c r="D294" s="55"/>
       <c r="E294" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F294" s="57"/>
       <c r="G294" s="50"/>
@@ -18103,7 +18101,7 @@
       <c r="C296" s="55"/>
       <c r="D296" s="55"/>
       <c r="E296" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F296" s="57"/>
       <c r="G296" s="50"/>
@@ -18123,7 +18121,7 @@
       <c r="C298" s="55"/>
       <c r="D298" s="55"/>
       <c r="E298" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F298" s="57"/>
       <c r="G298" s="50"/>
@@ -18134,7 +18132,7 @@
       <c r="C299" s="55"/>
       <c r="D299" s="55"/>
       <c r="E299" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F299" s="57"/>
       <c r="G299" s="50"/>
@@ -18145,7 +18143,7 @@
       <c r="C300" s="55"/>
       <c r="D300" s="55"/>
       <c r="E300" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F300" s="57"/>
       <c r="G300" s="50"/>
@@ -18156,7 +18154,7 @@
       <c r="C301" s="55"/>
       <c r="D301" s="55"/>
       <c r="E301" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F301" s="57"/>
       <c r="G301" s="50"/>
@@ -18167,7 +18165,7 @@
       <c r="C302" s="55"/>
       <c r="D302" s="55"/>
       <c r="E302" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F302" s="57"/>
       <c r="G302" s="50"/>
@@ -18178,7 +18176,7 @@
       <c r="C303" s="53"/>
       <c r="D303" s="53"/>
       <c r="E303" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F303" s="58"/>
       <c r="G303" s="50"/>
@@ -18187,10 +18185,10 @@
       <c r="A304" s="48"/>
       <c r="B304" s="52"/>
       <c r="C304" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D304" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="D304" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E304" s="52"/>
       <c r="F304" s="52"/>
@@ -18210,7 +18208,7 @@
       <c r="B306" s="53"/>
       <c r="C306" s="53"/>
       <c r="D306" s="20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E306" s="53"/>
       <c r="F306" s="53"/>
@@ -18220,10 +18218,10 @@
       <c r="A307" s="48"/>
       <c r="B307" s="52"/>
       <c r="C307" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D307" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="D307" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="E307" s="52"/>
       <c r="F307" s="52"/>
@@ -18243,7 +18241,7 @@
       <c r="B309" s="53"/>
       <c r="C309" s="53"/>
       <c r="D309" s="20" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E309" s="53"/>
       <c r="F309" s="53"/>
@@ -18253,10 +18251,10 @@
       <c r="A310" s="48"/>
       <c r="B310" s="52"/>
       <c r="C310" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D310" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="E310" s="52"/>
       <c r="F310" s="52"/>
@@ -18276,7 +18274,7 @@
       <c r="B312" s="53"/>
       <c r="C312" s="53"/>
       <c r="D312" s="20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E312" s="53"/>
       <c r="F312" s="53"/>
@@ -18286,10 +18284,10 @@
       <c r="A313" s="48"/>
       <c r="B313" s="52"/>
       <c r="C313" s="52" t="s">
+        <v>296</v>
+      </c>
+      <c r="D313" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="E313" s="52"/>
       <c r="F313" s="52"/>
@@ -18309,7 +18307,7 @@
       <c r="B315" s="53"/>
       <c r="C315" s="53"/>
       <c r="D315" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E315" s="53"/>
       <c r="F315" s="53"/>
@@ -18319,10 +18317,10 @@
       <c r="A316" s="48"/>
       <c r="B316" s="52"/>
       <c r="C316" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="D316" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="D316" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="E316" s="52"/>
       <c r="F316" s="52"/>
@@ -18337,12 +18335,12 @@
       <c r="F317" s="55"/>
       <c r="G317" s="50"/>
     </row>
-    <row r="318" spans="1:7" ht="46" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A318" s="51"/>
       <c r="B318" s="53"/>
       <c r="C318" s="53"/>
       <c r="D318" s="20" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E318" s="53"/>
       <c r="F318" s="53"/>
@@ -18350,7 +18348,7 @@
     </row>
     <row r="319" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A319" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B319" s="46"/>
       <c r="C319" s="46"/>
@@ -18361,39 +18359,39 @@
     </row>
     <row r="320" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B320" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C320" s="52"/>
       <c r="D320" s="52"/>
       <c r="E320" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F320" s="56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G320" s="50"/>
     </row>
     <row r="321" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A321" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="B321" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="C321" s="55"/>
       <c r="D321" s="55"/>
       <c r="E321" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F321" s="57"/>
       <c r="G321" s="50"/>
     </row>
     <row r="322" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B322" s="4"/>
       <c r="C322" s="55"/>
@@ -18408,14 +18406,14 @@
       <c r="C323" s="55"/>
       <c r="D323" s="55"/>
       <c r="E323" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F323" s="57"/>
       <c r="G323" s="50"/>
     </row>
     <row r="324" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B324" s="4"/>
       <c r="C324" s="55"/>
@@ -18430,7 +18428,7 @@
       <c r="C325" s="55"/>
       <c r="D325" s="55"/>
       <c r="E325" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F325" s="57"/>
       <c r="G325" s="50"/>
@@ -18450,7 +18448,7 @@
       <c r="C327" s="55"/>
       <c r="D327" s="55"/>
       <c r="E327" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F327" s="57"/>
       <c r="G327" s="50"/>
@@ -18470,7 +18468,7 @@
       <c r="C329" s="55"/>
       <c r="D329" s="55"/>
       <c r="E329" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F329" s="57"/>
       <c r="G329" s="50"/>
@@ -18481,7 +18479,7 @@
       <c r="C330" s="55"/>
       <c r="D330" s="55"/>
       <c r="E330" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F330" s="57"/>
       <c r="G330" s="50"/>
@@ -18492,7 +18490,7 @@
       <c r="C331" s="53"/>
       <c r="D331" s="53"/>
       <c r="E331" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F331" s="58"/>
       <c r="G331" s="50"/>
@@ -18501,10 +18499,10 @@
       <c r="A332" s="48"/>
       <c r="B332" s="52"/>
       <c r="C332" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="D332" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="D332" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="E332" s="52"/>
       <c r="F332" s="52"/>
@@ -18524,7 +18522,7 @@
       <c r="B334" s="53"/>
       <c r="C334" s="53"/>
       <c r="D334" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E334" s="53"/>
       <c r="F334" s="53"/>
@@ -18534,10 +18532,10 @@
       <c r="A335" s="48"/>
       <c r="B335" s="52"/>
       <c r="C335" s="52" t="s">
+        <v>306</v>
+      </c>
+      <c r="D335" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="D335" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="E335" s="52"/>
       <c r="F335" s="52"/>
@@ -18557,7 +18555,7 @@
       <c r="B337" s="53"/>
       <c r="C337" s="53"/>
       <c r="D337" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E337" s="53"/>
       <c r="F337" s="53"/>
@@ -18567,10 +18565,10 @@
       <c r="A338" s="48"/>
       <c r="B338" s="52"/>
       <c r="C338" s="52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D338" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D338" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E338" s="52"/>
       <c r="F338" s="52"/>
@@ -18590,7 +18588,7 @@
       <c r="B340" s="53"/>
       <c r="C340" s="53"/>
       <c r="D340" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E340" s="53"/>
       <c r="F340" s="53"/>
@@ -18600,10 +18598,10 @@
       <c r="A341" s="48"/>
       <c r="B341" s="52"/>
       <c r="C341" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="D341" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="D341" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="E341" s="52"/>
       <c r="F341" s="52"/>
@@ -18623,7 +18621,7 @@
       <c r="B343" s="53"/>
       <c r="C343" s="53"/>
       <c r="D343" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E343" s="53"/>
       <c r="F343" s="53"/>
@@ -18633,10 +18631,10 @@
       <c r="A344" s="48"/>
       <c r="B344" s="52"/>
       <c r="C344" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="D344" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D344" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E344" s="52"/>
       <c r="F344" s="52"/>
@@ -18656,7 +18654,7 @@
       <c r="B346" s="53"/>
       <c r="C346" s="53"/>
       <c r="D346" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E346" s="53"/>
       <c r="F346" s="53"/>
@@ -18664,7 +18662,7 @@
     </row>
     <row r="347" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A347" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B347" s="46"/>
       <c r="C347" s="46"/>
@@ -18675,10 +18673,10 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C348" s="52"/>
       <c r="D348" s="52"/>
@@ -18689,7 +18687,7 @@
     <row r="349" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A349" s="49"/>
       <c r="B349" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C349" s="55"/>
       <c r="D349" s="55"/>
@@ -18699,7 +18697,7 @@
     </row>
     <row r="350" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B350" s="4"/>
       <c r="C350" s="55"/>
@@ -18719,7 +18717,7 @@
     </row>
     <row r="352" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B352" s="4"/>
       <c r="C352" s="55"/>
@@ -18750,14 +18748,14 @@
       <c r="A355" s="48"/>
       <c r="B355" s="52"/>
       <c r="C355" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="D355" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="D355" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="E355" s="52"/>
       <c r="F355" s="56" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G355" s="50"/>
     </row>
@@ -18766,7 +18764,7 @@
       <c r="B356" s="55"/>
       <c r="C356" s="4"/>
       <c r="D356" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E356" s="55"/>
       <c r="F356" s="57"/>
@@ -18776,10 +18774,10 @@
       <c r="A357" s="49"/>
       <c r="B357" s="55"/>
       <c r="C357" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="D357" s="24" t="s">
         <v>326</v>
-      </c>
-      <c r="D357" s="24" t="s">
-        <v>327</v>
       </c>
       <c r="E357" s="55"/>
       <c r="F357" s="57"/>
@@ -18789,10 +18787,10 @@
       <c r="A358" s="49"/>
       <c r="B358" s="55"/>
       <c r="C358" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="D358" s="24" t="s">
         <v>327</v>
-      </c>
-      <c r="D358" s="24" t="s">
-        <v>328</v>
       </c>
       <c r="E358" s="55"/>
       <c r="F358" s="57"/>
@@ -18802,7 +18800,7 @@
       <c r="A359" s="49"/>
       <c r="B359" s="55"/>
       <c r="C359" s="24" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D359" s="4"/>
       <c r="E359" s="55"/>
@@ -18832,7 +18830,7 @@
       <c r="B362" s="53"/>
       <c r="C362" s="5"/>
       <c r="D362" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E362" s="53"/>
       <c r="F362" s="58"/>
@@ -18842,14 +18840,14 @@
       <c r="A363" s="48"/>
       <c r="B363" s="52"/>
       <c r="C363" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D363" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E363" s="69"/>
       <c r="F363" s="56" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G363" s="50"/>
     </row>
@@ -18857,10 +18855,10 @@
       <c r="A364" s="49"/>
       <c r="B364" s="55"/>
       <c r="C364" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D364" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E364" s="70"/>
       <c r="F364" s="57"/>
@@ -18870,10 +18868,10 @@
       <c r="A365" s="49"/>
       <c r="B365" s="55"/>
       <c r="C365" s="24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D365" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E365" s="70"/>
       <c r="F365" s="57"/>
@@ -18883,10 +18881,10 @@
       <c r="A366" s="49"/>
       <c r="B366" s="55"/>
       <c r="C366" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D366" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E366" s="70"/>
       <c r="F366" s="57"/>
@@ -18919,12 +18917,12 @@
       <c r="F369" s="57"/>
       <c r="G369" s="50"/>
     </row>
-    <row r="370" spans="1:7" ht="389" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A370" s="51"/>
       <c r="B370" s="53"/>
       <c r="C370" s="5"/>
       <c r="D370" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E370" s="71"/>
       <c r="F370" s="58"/>
@@ -18934,14 +18932,14 @@
       <c r="A371" s="48"/>
       <c r="B371" s="52"/>
       <c r="C371" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D371" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E371" s="52"/>
       <c r="F371" s="56" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G371" s="50"/>
     </row>
@@ -18949,10 +18947,10 @@
       <c r="A372" s="49"/>
       <c r="B372" s="55"/>
       <c r="C372" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D372" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E372" s="55"/>
       <c r="F372" s="57"/>
@@ -18962,10 +18960,10 @@
       <c r="A373" s="49"/>
       <c r="B373" s="55"/>
       <c r="C373" s="24" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D373" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E373" s="55"/>
       <c r="F373" s="57"/>
@@ -18975,10 +18973,10 @@
       <c r="A374" s="49"/>
       <c r="B374" s="55"/>
       <c r="C374" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D374" s="24" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E374" s="55"/>
       <c r="F374" s="57"/>
@@ -19016,7 +19014,7 @@
       <c r="B378" s="53"/>
       <c r="C378" s="5"/>
       <c r="D378" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E378" s="53"/>
       <c r="F378" s="58"/>
@@ -19026,14 +19024,14 @@
       <c r="A379" s="48"/>
       <c r="B379" s="52"/>
       <c r="C379" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D379" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="D379" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="E379" s="52"/>
       <c r="F379" s="73" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G379" s="74"/>
     </row>
@@ -19041,10 +19039,10 @@
       <c r="A380" s="49"/>
       <c r="B380" s="55"/>
       <c r="C380" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D380" s="17" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E380" s="55"/>
       <c r="F380" s="75"/>
@@ -19054,10 +19052,10 @@
       <c r="A381" s="49"/>
       <c r="B381" s="55"/>
       <c r="C381" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="D381" s="19" t="s">
         <v>346</v>
-      </c>
-      <c r="D381" s="19" t="s">
-        <v>347</v>
       </c>
       <c r="E381" s="55"/>
       <c r="F381" s="75"/>
@@ -19067,10 +19065,10 @@
       <c r="A382" s="49"/>
       <c r="B382" s="55"/>
       <c r="C382" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D382" s="17" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E382" s="55"/>
       <c r="F382" s="75"/>
@@ -19085,12 +19083,12 @@
       <c r="F383" s="75"/>
       <c r="G383" s="6"/>
     </row>
-    <row r="384" spans="1:7" ht="371" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="385" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A384" s="51"/>
       <c r="B384" s="53"/>
       <c r="C384" s="5"/>
       <c r="D384" s="20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E384" s="53"/>
       <c r="F384" s="76"/>
@@ -19100,14 +19098,14 @@
       <c r="A385" s="48"/>
       <c r="B385" s="52"/>
       <c r="C385" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D385" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E385" s="69"/>
       <c r="F385" s="56" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G385" s="77"/>
     </row>
@@ -19115,10 +19113,10 @@
       <c r="A386" s="49"/>
       <c r="B386" s="55"/>
       <c r="C386" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D386" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E386" s="70"/>
       <c r="F386" s="57"/>
@@ -19128,10 +19126,10 @@
       <c r="A387" s="49"/>
       <c r="B387" s="55"/>
       <c r="C387" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D387" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E387" s="70"/>
       <c r="F387" s="57"/>
@@ -19141,10 +19139,10 @@
       <c r="A388" s="49"/>
       <c r="B388" s="55"/>
       <c r="C388" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D388" s="24" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E388" s="70"/>
       <c r="F388" s="57"/>
@@ -19177,12 +19175,12 @@
       <c r="F391" s="57"/>
       <c r="G391" s="50"/>
     </row>
-    <row r="392" spans="1:7" ht="341" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="373" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A392" s="51"/>
       <c r="B392" s="53"/>
       <c r="C392" s="5"/>
       <c r="D392" s="26" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E392" s="71"/>
       <c r="F392" s="58"/>
@@ -19190,7 +19188,7 @@
     </row>
     <row r="393" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A393" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B393" s="46"/>
       <c r="C393" s="46"/>
@@ -19201,10 +19199,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C394" s="52"/>
       <c r="D394" s="52"/>
@@ -19214,10 +19212,10 @@
     </row>
     <row r="395" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A395" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C395" s="55"/>
       <c r="D395" s="55"/>
@@ -19236,7 +19234,7 @@
     </row>
     <row r="397" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B397" s="4"/>
       <c r="C397" s="55"/>
@@ -19267,14 +19265,14 @@
       <c r="A400" s="48"/>
       <c r="B400" s="52"/>
       <c r="C400" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D400" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E400" s="52"/>
       <c r="F400" s="56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G400" s="50"/>
     </row>
@@ -19282,10 +19280,10 @@
       <c r="A401" s="49"/>
       <c r="B401" s="55"/>
       <c r="C401" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D401" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E401" s="55"/>
       <c r="F401" s="57"/>
@@ -19295,10 +19293,10 @@
       <c r="A402" s="49"/>
       <c r="B402" s="55"/>
       <c r="C402" s="24" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D402" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E402" s="55"/>
       <c r="F402" s="57"/>
@@ -19308,10 +19306,10 @@
       <c r="A403" s="49"/>
       <c r="B403" s="55"/>
       <c r="C403" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D403" s="24" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E403" s="55"/>
       <c r="F403" s="57"/>
@@ -19331,7 +19329,7 @@
       <c r="B405" s="53"/>
       <c r="C405" s="5"/>
       <c r="D405" s="20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E405" s="53"/>
       <c r="F405" s="58"/>
@@ -19341,14 +19339,14 @@
       <c r="A406" s="48"/>
       <c r="B406" s="52"/>
       <c r="C406" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E406" s="52"/>
       <c r="F406" s="56" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G406" s="50"/>
     </row>
@@ -19356,10 +19354,10 @@
       <c r="A407" s="49"/>
       <c r="B407" s="55"/>
       <c r="C407" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D407" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E407" s="55"/>
       <c r="F407" s="57"/>
@@ -19369,10 +19367,10 @@
       <c r="A408" s="49"/>
       <c r="B408" s="55"/>
       <c r="C408" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="D408" s="25" t="s">
         <v>365</v>
-      </c>
-      <c r="D408" s="25" t="s">
-        <v>366</v>
       </c>
       <c r="E408" s="55"/>
       <c r="F408" s="57"/>
@@ -19382,10 +19380,10 @@
       <c r="A409" s="49"/>
       <c r="B409" s="55"/>
       <c r="C409" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D409" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E409" s="55"/>
       <c r="F409" s="57"/>
@@ -19418,12 +19416,12 @@
       <c r="F412" s="57"/>
       <c r="G412" s="50"/>
     </row>
-    <row r="413" spans="1:7" ht="286" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="301" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A413" s="51"/>
       <c r="B413" s="53"/>
       <c r="C413" s="5"/>
       <c r="D413" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E413" s="53"/>
       <c r="F413" s="58"/>
@@ -19433,14 +19431,14 @@
       <c r="A414" s="48"/>
       <c r="B414" s="52"/>
       <c r="C414" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E414" s="69"/>
       <c r="F414" s="56" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G414" s="50"/>
     </row>
@@ -19448,10 +19446,10 @@
       <c r="A415" s="49"/>
       <c r="B415" s="55"/>
       <c r="C415" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D415" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E415" s="70"/>
       <c r="F415" s="57"/>
@@ -19461,10 +19459,10 @@
       <c r="A416" s="49"/>
       <c r="B416" s="55"/>
       <c r="C416" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D416" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E416" s="70"/>
       <c r="F416" s="57"/>
@@ -19474,10 +19472,10 @@
       <c r="A417" s="49"/>
       <c r="B417" s="55"/>
       <c r="C417" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D417" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E417" s="70"/>
       <c r="F417" s="57"/>
@@ -19515,7 +19513,7 @@
       <c r="B421" s="53"/>
       <c r="C421" s="5"/>
       <c r="D421" s="26" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E421" s="71"/>
       <c r="F421" s="58"/>
@@ -19525,14 +19523,14 @@
       <c r="A422" s="48"/>
       <c r="B422" s="52"/>
       <c r="C422" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D422" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E422" s="69"/>
       <c r="F422" s="56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G422" s="50"/>
     </row>
@@ -19540,10 +19538,10 @@
       <c r="A423" s="49"/>
       <c r="B423" s="55"/>
       <c r="C423" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D423" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E423" s="70"/>
       <c r="F423" s="57"/>
@@ -19553,10 +19551,10 @@
       <c r="A424" s="49"/>
       <c r="B424" s="55"/>
       <c r="C424" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D424" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E424" s="70"/>
       <c r="F424" s="57"/>
@@ -19566,10 +19564,10 @@
       <c r="A425" s="49"/>
       <c r="B425" s="55"/>
       <c r="C425" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D425" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E425" s="70"/>
       <c r="F425" s="57"/>
@@ -19607,7 +19605,7 @@
       <c r="B429" s="53"/>
       <c r="C429" s="5"/>
       <c r="D429" s="26" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E429" s="71"/>
       <c r="F429" s="58"/>
@@ -19617,14 +19615,14 @@
       <c r="A430" s="48"/>
       <c r="B430" s="52"/>
       <c r="C430" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D430" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E430" s="52"/>
       <c r="F430" s="56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G430" s="50"/>
     </row>
@@ -19632,10 +19630,10 @@
       <c r="A431" s="49"/>
       <c r="B431" s="55"/>
       <c r="C431" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D431" s="25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E431" s="55"/>
       <c r="F431" s="57"/>
@@ -19645,10 +19643,10 @@
       <c r="A432" s="49"/>
       <c r="B432" s="55"/>
       <c r="C432" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D432" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E432" s="55"/>
       <c r="F432" s="57"/>
@@ -19658,10 +19656,10 @@
       <c r="A433" s="49"/>
       <c r="B433" s="55"/>
       <c r="C433" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D433" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E433" s="55"/>
       <c r="F433" s="57"/>
@@ -19681,7 +19679,7 @@
       <c r="B435" s="53"/>
       <c r="C435" s="5"/>
       <c r="D435" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E435" s="53"/>
       <c r="F435" s="58"/>
@@ -19689,7 +19687,7 @@
     </row>
     <row r="436" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A436" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B436" s="46"/>
       <c r="C436" s="46"/>
@@ -19700,10 +19698,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C437" s="52"/>
       <c r="D437" s="52"/>
@@ -19713,10 +19711,10 @@
     </row>
     <row r="438" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A438" s="49" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C438" s="55"/>
       <c r="D438" s="55"/>
@@ -19735,7 +19733,7 @@
     </row>
     <row r="440" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B440" s="4"/>
       <c r="C440" s="55"/>
@@ -19766,14 +19764,14 @@
       <c r="A443" s="48"/>
       <c r="B443" s="52"/>
       <c r="C443" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D443" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E443" s="52"/>
       <c r="F443" s="56" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G443" s="50"/>
     </row>
@@ -19781,10 +19779,10 @@
       <c r="A444" s="49"/>
       <c r="B444" s="55"/>
       <c r="C444" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D444" s="25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E444" s="55"/>
       <c r="F444" s="57"/>
@@ -19794,10 +19792,10 @@
       <c r="A445" s="49"/>
       <c r="B445" s="55"/>
       <c r="C445" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D445" s="30" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E445" s="55"/>
       <c r="F445" s="57"/>
@@ -19807,10 +19805,10 @@
       <c r="A446" s="49"/>
       <c r="B446" s="55"/>
       <c r="C446" s="30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D446" s="24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E446" s="55"/>
       <c r="F446" s="57"/>
@@ -19843,12 +19841,12 @@
       <c r="F449" s="57"/>
       <c r="G449" s="50"/>
     </row>
-    <row r="450" spans="1:7" ht="341" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="357" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A450" s="51"/>
       <c r="B450" s="53"/>
       <c r="C450" s="5"/>
       <c r="D450" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E450" s="53"/>
       <c r="F450" s="58"/>
@@ -19858,14 +19856,14 @@
       <c r="A451" s="48"/>
       <c r="B451" s="52"/>
       <c r="C451" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D451" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E451" s="52"/>
       <c r="F451" s="56" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G451" s="50"/>
     </row>
@@ -19873,10 +19871,10 @@
       <c r="A452" s="49"/>
       <c r="B452" s="55"/>
       <c r="C452" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D452" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E452" s="55"/>
       <c r="F452" s="57"/>
@@ -19886,10 +19884,10 @@
       <c r="A453" s="49"/>
       <c r="B453" s="55"/>
       <c r="C453" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D453" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E453" s="55"/>
       <c r="F453" s="57"/>
@@ -19899,10 +19897,10 @@
       <c r="A454" s="49"/>
       <c r="B454" s="55"/>
       <c r="C454" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D454" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E454" s="55"/>
       <c r="F454" s="57"/>
@@ -19922,7 +19920,7 @@
       <c r="B456" s="53"/>
       <c r="C456" s="5"/>
       <c r="D456" s="20" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E456" s="53"/>
       <c r="F456" s="58"/>
@@ -19932,14 +19930,14 @@
       <c r="A457" s="48"/>
       <c r="B457" s="52"/>
       <c r="C457" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D457" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="D457" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="E457" s="52"/>
       <c r="F457" s="56" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G457" s="50"/>
     </row>
@@ -19947,10 +19945,10 @@
       <c r="A458" s="49"/>
       <c r="B458" s="55"/>
       <c r="C458" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D458" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E458" s="55"/>
       <c r="F458" s="57"/>
@@ -19960,10 +19958,10 @@
       <c r="A459" s="49"/>
       <c r="B459" s="55"/>
       <c r="C459" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D459" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E459" s="55"/>
       <c r="F459" s="57"/>
@@ -19973,10 +19971,10 @@
       <c r="A460" s="49"/>
       <c r="B460" s="55"/>
       <c r="C460" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D460" s="24" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E460" s="55"/>
       <c r="F460" s="57"/>
@@ -19991,12 +19989,12 @@
       <c r="F461" s="57"/>
       <c r="G461" s="50"/>
     </row>
-    <row r="462" spans="1:7" ht="256" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="286" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A462" s="51"/>
       <c r="B462" s="53"/>
       <c r="C462" s="5"/>
       <c r="D462" s="20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E462" s="53"/>
       <c r="F462" s="58"/>
@@ -20006,14 +20004,14 @@
       <c r="A463" s="48"/>
       <c r="B463" s="52"/>
       <c r="C463" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D463" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E463" s="52"/>
       <c r="F463" s="56" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G463" s="50"/>
     </row>
@@ -20021,10 +20019,10 @@
       <c r="A464" s="49"/>
       <c r="B464" s="55"/>
       <c r="C464" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D464" s="24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E464" s="55"/>
       <c r="F464" s="57"/>
@@ -20034,10 +20032,10 @@
       <c r="A465" s="49"/>
       <c r="B465" s="55"/>
       <c r="C465" s="24" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D465" s="25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E465" s="55"/>
       <c r="F465" s="57"/>
@@ -20047,10 +20045,10 @@
       <c r="A466" s="49"/>
       <c r="B466" s="55"/>
       <c r="C466" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D466" s="24" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E466" s="55"/>
       <c r="F466" s="57"/>
@@ -20088,7 +20086,7 @@
       <c r="B470" s="53"/>
       <c r="C470" s="5"/>
       <c r="D470" s="26" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E470" s="53"/>
       <c r="F470" s="58"/>
@@ -20098,14 +20096,14 @@
       <c r="A471" s="48"/>
       <c r="B471" s="52"/>
       <c r="C471" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D471" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E471" s="52"/>
       <c r="F471" s="56" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G471" s="50"/>
     </row>
@@ -20113,10 +20111,10 @@
       <c r="A472" s="49"/>
       <c r="B472" s="55"/>
       <c r="C472" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D472" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E472" s="55"/>
       <c r="F472" s="57"/>
@@ -20126,10 +20124,10 @@
       <c r="A473" s="49"/>
       <c r="B473" s="55"/>
       <c r="C473" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D473" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E473" s="55"/>
       <c r="F473" s="57"/>
@@ -20139,10 +20137,10 @@
       <c r="A474" s="49"/>
       <c r="B474" s="55"/>
       <c r="C474" s="24" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D474" s="25" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E474" s="55"/>
       <c r="F474" s="57"/>
@@ -20162,7 +20160,7 @@
       <c r="B476" s="53"/>
       <c r="C476" s="5"/>
       <c r="D476" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E476" s="53"/>
       <c r="F476" s="58"/>
@@ -20170,7 +20168,7 @@
     </row>
     <row r="477" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A477" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B477" s="46"/>
       <c r="C477" s="46"/>
@@ -20181,10 +20179,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C478" s="52"/>
       <c r="D478" s="52"/>
@@ -20194,10 +20192,10 @@
     </row>
     <row r="479" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A479" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C479" s="55"/>
       <c r="D479" s="55"/>
@@ -20216,7 +20214,7 @@
     </row>
     <row r="481" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B481" s="4"/>
       <c r="C481" s="55"/>
@@ -20247,14 +20245,14 @@
       <c r="A484" s="48"/>
       <c r="B484" s="52"/>
       <c r="C484" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D484" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E484" s="52"/>
       <c r="F484" s="56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G484" s="50"/>
     </row>
@@ -20262,10 +20260,10 @@
       <c r="A485" s="49"/>
       <c r="B485" s="55"/>
       <c r="C485" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D485" s="24" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E485" s="55"/>
       <c r="F485" s="57"/>
@@ -20275,10 +20273,10 @@
       <c r="A486" s="49"/>
       <c r="B486" s="55"/>
       <c r="C486" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D486" s="25" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E486" s="55"/>
       <c r="F486" s="57"/>
@@ -20288,10 +20286,10 @@
       <c r="A487" s="49"/>
       <c r="B487" s="55"/>
       <c r="C487" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D487" s="24" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E487" s="55"/>
       <c r="F487" s="57"/>
@@ -20320,7 +20318,7 @@
       <c r="B490" s="53"/>
       <c r="C490" s="5"/>
       <c r="D490" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E490" s="53"/>
       <c r="F490" s="58"/>
@@ -20330,14 +20328,14 @@
       <c r="A491" s="48"/>
       <c r="B491" s="52"/>
       <c r="C491" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D491" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E491" s="52"/>
       <c r="F491" s="56" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G491" s="50"/>
     </row>
@@ -20345,10 +20343,10 @@
       <c r="A492" s="49"/>
       <c r="B492" s="55"/>
       <c r="C492" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D492" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E492" s="55"/>
       <c r="F492" s="57"/>
@@ -20358,10 +20356,10 @@
       <c r="A493" s="49"/>
       <c r="B493" s="55"/>
       <c r="C493" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D493" s="25" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E493" s="55"/>
       <c r="F493" s="57"/>
@@ -20371,10 +20369,10 @@
       <c r="A494" s="49"/>
       <c r="B494" s="55"/>
       <c r="C494" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D494" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E494" s="55"/>
       <c r="F494" s="57"/>
@@ -20384,10 +20382,10 @@
       <c r="A495" s="49"/>
       <c r="B495" s="55"/>
       <c r="C495" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D495" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E495" s="55"/>
       <c r="F495" s="57"/>
@@ -20425,7 +20423,7 @@
       <c r="B499" s="53"/>
       <c r="C499" s="5"/>
       <c r="D499" s="20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E499" s="53"/>
       <c r="F499" s="58"/>
@@ -20435,10 +20433,10 @@
       <c r="A500" s="48"/>
       <c r="B500" s="52"/>
       <c r="C500" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D500" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E500" s="52"/>
       <c r="F500" s="52"/>
@@ -20448,10 +20446,10 @@
       <c r="A501" s="49"/>
       <c r="B501" s="55"/>
       <c r="C501" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D501" s="24" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E501" s="55"/>
       <c r="F501" s="55"/>
@@ -20461,10 +20459,10 @@
       <c r="A502" s="49"/>
       <c r="B502" s="55"/>
       <c r="C502" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D502" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E502" s="55"/>
       <c r="F502" s="55"/>
@@ -20474,10 +20472,10 @@
       <c r="A503" s="49"/>
       <c r="B503" s="55"/>
       <c r="C503" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D503" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E503" s="55"/>
       <c r="F503" s="55"/>
@@ -20510,12 +20508,12 @@
       <c r="F506" s="55"/>
       <c r="G506" s="50"/>
     </row>
-    <row r="507" spans="1:7" ht="222" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="239" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A507" s="51"/>
       <c r="B507" s="53"/>
       <c r="C507" s="5"/>
       <c r="D507" s="26" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E507" s="53"/>
       <c r="F507" s="53"/>
@@ -20525,10 +20523,10 @@
       <c r="A508" s="48"/>
       <c r="B508" s="52"/>
       <c r="C508" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D508" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E508" s="52"/>
       <c r="F508" s="52"/>
@@ -20538,10 +20536,10 @@
       <c r="A509" s="49"/>
       <c r="B509" s="55"/>
       <c r="C509" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D509" s="24" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E509" s="55"/>
       <c r="F509" s="55"/>
@@ -20551,10 +20549,10 @@
       <c r="A510" s="49"/>
       <c r="B510" s="55"/>
       <c r="C510" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D510" s="24" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E510" s="55"/>
       <c r="F510" s="55"/>
@@ -20564,10 +20562,10 @@
       <c r="A511" s="49"/>
       <c r="B511" s="55"/>
       <c r="C511" s="24" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D511" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E511" s="55"/>
       <c r="F511" s="55"/>
@@ -20605,7 +20603,7 @@
       <c r="B515" s="53"/>
       <c r="C515" s="5"/>
       <c r="D515" s="20" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E515" s="53"/>
       <c r="F515" s="53"/>
@@ -20615,14 +20613,14 @@
       <c r="A516" s="48"/>
       <c r="B516" s="52"/>
       <c r="C516" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D516" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E516" s="52"/>
       <c r="F516" s="56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G516" s="50"/>
     </row>
@@ -20630,10 +20628,10 @@
       <c r="A517" s="49"/>
       <c r="B517" s="55"/>
       <c r="C517" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D517" s="24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E517" s="55"/>
       <c r="F517" s="57"/>
@@ -20643,10 +20641,10 @@
       <c r="A518" s="49"/>
       <c r="B518" s="55"/>
       <c r="C518" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D518" s="24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E518" s="55"/>
       <c r="F518" s="57"/>
@@ -20656,10 +20654,10 @@
       <c r="A519" s="49"/>
       <c r="B519" s="55"/>
       <c r="C519" s="24" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D519" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E519" s="55"/>
       <c r="F519" s="57"/>
@@ -20697,7 +20695,7 @@
       <c r="B523" s="53"/>
       <c r="C523" s="5"/>
       <c r="D523" s="26" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E523" s="53"/>
       <c r="F523" s="58"/>
@@ -20705,7 +20703,7 @@
     </row>
     <row r="524" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A524" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B524" s="46"/>
       <c r="C524" s="46"/>
@@ -20716,10 +20714,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B525" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B525" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C525" s="52"/>
       <c r="D525" s="52"/>
@@ -20729,10 +20727,10 @@
     </row>
     <row r="526" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A526" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C526" s="55"/>
       <c r="D526" s="55"/>
@@ -20751,7 +20749,7 @@
     </row>
     <row r="528" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B528" s="4"/>
       <c r="C528" s="55"/>
@@ -20773,14 +20771,14 @@
       <c r="A530" s="48"/>
       <c r="B530" s="52"/>
       <c r="C530" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E530" s="64"/>
       <c r="F530" s="56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G530" s="50"/>
     </row>
@@ -20788,10 +20786,10 @@
       <c r="A531" s="49"/>
       <c r="B531" s="55"/>
       <c r="C531" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D531" s="24" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E531" s="66"/>
       <c r="F531" s="57"/>
@@ -20801,10 +20799,10 @@
       <c r="A532" s="49"/>
       <c r="B532" s="55"/>
       <c r="C532" s="24" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D532" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E532" s="66"/>
       <c r="F532" s="57"/>
@@ -20814,10 +20812,10 @@
       <c r="A533" s="49"/>
       <c r="B533" s="55"/>
       <c r="C533" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D533" s="24" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E533" s="66"/>
       <c r="F533" s="57"/>
@@ -20846,7 +20844,7 @@
       <c r="B536" s="53"/>
       <c r="C536" s="5"/>
       <c r="D536" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E536" s="65"/>
       <c r="F536" s="58"/>
@@ -20856,14 +20854,14 @@
       <c r="A537" s="48"/>
       <c r="B537" s="52"/>
       <c r="C537" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D537" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E537" s="64"/>
       <c r="F537" s="56" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G537" s="50"/>
     </row>
@@ -20871,10 +20869,10 @@
       <c r="A538" s="49"/>
       <c r="B538" s="55"/>
       <c r="C538" s="24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D538" s="24" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E538" s="66"/>
       <c r="F538" s="57"/>
@@ -20884,10 +20882,10 @@
       <c r="A539" s="49"/>
       <c r="B539" s="55"/>
       <c r="C539" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D539" s="24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E539" s="66"/>
       <c r="F539" s="57"/>
@@ -20897,10 +20895,10 @@
       <c r="A540" s="49"/>
       <c r="B540" s="55"/>
       <c r="C540" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D540" s="24" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E540" s="66"/>
       <c r="F540" s="57"/>
@@ -20911,7 +20909,7 @@
       <c r="B541" s="55"/>
       <c r="C541" s="3"/>
       <c r="D541" s="32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E541" s="66"/>
       <c r="F541" s="57"/>
@@ -20940,26 +20938,26 @@
       <c r="B544" s="53"/>
       <c r="C544" s="5"/>
       <c r="D544" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E544" s="65"/>
       <c r="F544" s="58"/>
       <c r="G544" s="50"/>
     </row>
-    <row r="545" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A545" s="48"/>
       <c r="B545" s="52"/>
       <c r="C545" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="E545" s="69" t="s">
+        <v>209</v>
+      </c>
+      <c r="F545" s="56" t="s">
         <v>460</v>
-      </c>
-      <c r="D545" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E545" s="69" t="s">
-        <v>210</v>
-      </c>
-      <c r="F545" s="56" t="s">
-        <v>461</v>
       </c>
       <c r="G545" s="50"/>
     </row>
@@ -20967,10 +20965,10 @@
       <c r="A546" s="49"/>
       <c r="B546" s="55"/>
       <c r="C546" s="24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D546" s="24" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E546" s="70"/>
       <c r="F546" s="57"/>
@@ -20980,10 +20978,10 @@
       <c r="A547" s="49"/>
       <c r="B547" s="55"/>
       <c r="C547" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D547" s="24" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E547" s="70"/>
       <c r="F547" s="57"/>
@@ -20993,10 +20991,10 @@
       <c r="A548" s="49"/>
       <c r="B548" s="55"/>
       <c r="C548" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D548" s="24" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E548" s="70"/>
       <c r="F548" s="57"/>
@@ -21007,7 +21005,7 @@
       <c r="B549" s="55"/>
       <c r="C549" s="3"/>
       <c r="D549" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E549" s="70"/>
       <c r="F549" s="57"/>
@@ -21036,7 +21034,7 @@
       <c r="B552" s="55"/>
       <c r="C552" s="4"/>
       <c r="D552" s="27" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E552" s="70"/>
       <c r="F552" s="57"/>
@@ -21056,7 +21054,7 @@
       <c r="B554" s="53"/>
       <c r="C554" s="5"/>
       <c r="D554" s="20" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E554" s="71"/>
       <c r="F554" s="58"/>
@@ -21066,14 +21064,14 @@
       <c r="A555" s="48"/>
       <c r="B555" s="52"/>
       <c r="C555" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E555" s="64"/>
       <c r="F555" s="56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G555" s="50"/>
     </row>
@@ -21081,10 +21079,10 @@
       <c r="A556" s="49"/>
       <c r="B556" s="55"/>
       <c r="C556" s="24" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D556" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E556" s="66"/>
       <c r="F556" s="57"/>
@@ -21094,10 +21092,10 @@
       <c r="A557" s="49"/>
       <c r="B557" s="55"/>
       <c r="C557" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D557" s="24" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E557" s="66"/>
       <c r="F557" s="57"/>
@@ -21107,10 +21105,10 @@
       <c r="A558" s="49"/>
       <c r="B558" s="55"/>
       <c r="C558" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D558" s="24" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E558" s="66"/>
       <c r="F558" s="57"/>
@@ -21143,12 +21141,12 @@
       <c r="F561" s="57"/>
       <c r="G561" s="50"/>
     </row>
-    <row r="562" spans="1:7" ht="315" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="343" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A562" s="51"/>
       <c r="B562" s="53"/>
       <c r="C562" s="5"/>
       <c r="D562" s="20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E562" s="65"/>
       <c r="F562" s="58"/>
@@ -21158,14 +21156,14 @@
       <c r="A563" s="48"/>
       <c r="B563" s="52"/>
       <c r="C563" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E563" s="52"/>
       <c r="F563" s="56" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G563" s="50"/>
     </row>
@@ -21173,10 +21171,10 @@
       <c r="A564" s="49"/>
       <c r="B564" s="55"/>
       <c r="C564" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D564" s="24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E564" s="55"/>
       <c r="F564" s="57"/>
@@ -21186,10 +21184,10 @@
       <c r="A565" s="49"/>
       <c r="B565" s="55"/>
       <c r="C565" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D565" s="24" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E565" s="55"/>
       <c r="F565" s="57"/>
@@ -21199,10 +21197,10 @@
       <c r="A566" s="49"/>
       <c r="B566" s="55"/>
       <c r="C566" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D566" s="24" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E566" s="55"/>
       <c r="F566" s="57"/>
@@ -21213,7 +21211,7 @@
       <c r="B567" s="55"/>
       <c r="C567" s="4"/>
       <c r="D567" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E567" s="55"/>
       <c r="F567" s="57"/>
@@ -21228,12 +21226,12 @@
       <c r="F568" s="57"/>
       <c r="G568" s="50"/>
     </row>
-    <row r="569" spans="1:7" ht="286" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="301" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A569" s="51"/>
       <c r="B569" s="53"/>
       <c r="C569" s="5"/>
       <c r="D569" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E569" s="53"/>
       <c r="F569" s="58"/>
@@ -21241,7 +21239,7 @@
     </row>
     <row r="570" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A570" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B570" s="46"/>
       <c r="C570" s="46"/>
@@ -21252,7 +21250,7 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B571" s="52"/>
       <c r="C571" s="52"/>
@@ -21268,9 +21266,9 @@
       <c r="E572" s="55"/>
       <c r="F572" s="50"/>
     </row>
-    <row r="573" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B573" s="55"/>
       <c r="C573" s="55"/>
@@ -21286,9 +21284,9 @@
       <c r="E574" s="55"/>
       <c r="F574" s="50"/>
     </row>
-    <row r="575" spans="1:7" ht="31" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A575" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B575" s="53"/>
       <c r="C575" s="53"/>
@@ -21300,16 +21298,16 @@
       <c r="A576" s="48"/>
       <c r="B576" s="52"/>
       <c r="C576" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D576" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E576" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="F576" s="57" t="s">
         <v>479</v>
-      </c>
-      <c r="D576" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E576" s="64" t="s">
-        <v>210</v>
-      </c>
-      <c r="F576" s="57" t="s">
-        <v>480</v>
       </c>
       <c r="G576" s="50"/>
     </row>
@@ -21317,10 +21315,10 @@
       <c r="A577" s="49"/>
       <c r="B577" s="55"/>
       <c r="C577" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D577" s="24" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E577" s="66"/>
       <c r="F577" s="57"/>
@@ -21330,10 +21328,10 @@
       <c r="A578" s="49"/>
       <c r="B578" s="55"/>
       <c r="C578" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D578" s="24" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E578" s="66"/>
       <c r="F578" s="57"/>
@@ -21343,10 +21341,10 @@
       <c r="A579" s="49"/>
       <c r="B579" s="55"/>
       <c r="C579" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D579" s="24" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E579" s="66"/>
       <c r="F579" s="57"/>
@@ -21357,7 +21355,7 @@
       <c r="B580" s="55"/>
       <c r="C580" s="3"/>
       <c r="D580" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E580" s="66"/>
       <c r="F580" s="57"/>
@@ -21377,7 +21375,7 @@
       <c r="B582" s="53"/>
       <c r="C582" s="5"/>
       <c r="D582" s="20" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E582" s="65"/>
       <c r="F582" s="58"/>
@@ -21387,14 +21385,14 @@
       <c r="A583" s="48"/>
       <c r="B583" s="52"/>
       <c r="C583" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D583" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E583" s="64"/>
       <c r="F583" s="56" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G583" s="50"/>
     </row>
@@ -21402,10 +21400,10 @@
       <c r="A584" s="49"/>
       <c r="B584" s="55"/>
       <c r="C584" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D584" s="24" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E584" s="66"/>
       <c r="F584" s="57"/>
@@ -21415,10 +21413,10 @@
       <c r="A585" s="49"/>
       <c r="B585" s="55"/>
       <c r="C585" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D585" s="24" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E585" s="66"/>
       <c r="F585" s="57"/>
@@ -21428,10 +21426,10 @@
       <c r="A586" s="49"/>
       <c r="B586" s="55"/>
       <c r="C586" s="24" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D586" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E586" s="66"/>
       <c r="F586" s="57"/>
@@ -21464,12 +21462,12 @@
       <c r="F589" s="57"/>
       <c r="G589" s="50"/>
     </row>
-    <row r="590" spans="1:7" ht="286" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="301" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A590" s="51"/>
       <c r="B590" s="53"/>
       <c r="C590" s="5"/>
       <c r="D590" s="20" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E590" s="65"/>
       <c r="F590" s="58"/>
@@ -21479,14 +21477,14 @@
       <c r="A591" s="48"/>
       <c r="B591" s="52"/>
       <c r="C591" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D591" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E591" s="64"/>
       <c r="F591" s="56" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G591" s="50"/>
     </row>
@@ -21494,10 +21492,10 @@
       <c r="A592" s="49"/>
       <c r="B592" s="55"/>
       <c r="C592" s="24" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D592" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E592" s="66"/>
       <c r="F592" s="57"/>
@@ -21507,10 +21505,10 @@
       <c r="A593" s="49"/>
       <c r="B593" s="55"/>
       <c r="C593" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D593" s="24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E593" s="66"/>
       <c r="F593" s="57"/>
@@ -21520,10 +21518,10 @@
       <c r="A594" s="49"/>
       <c r="B594" s="55"/>
       <c r="C594" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D594" s="24" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E594" s="66"/>
       <c r="F594" s="57"/>
@@ -21538,12 +21536,12 @@
       <c r="F595" s="57"/>
       <c r="G595" s="50"/>
     </row>
-    <row r="596" spans="1:7" ht="328" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" ht="342" x14ac:dyDescent="0.2">
       <c r="A596" s="49"/>
       <c r="B596" s="55"/>
       <c r="C596" s="3"/>
       <c r="D596" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E596" s="66"/>
       <c r="F596" s="57"/>
@@ -21571,14 +21569,14 @@
       <c r="A599" s="48"/>
       <c r="B599" s="52"/>
       <c r="C599" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D599" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E599" s="64"/>
       <c r="F599" s="56" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G599" s="50"/>
     </row>
@@ -21586,10 +21584,10 @@
       <c r="A600" s="49"/>
       <c r="B600" s="55"/>
       <c r="C600" s="24" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D600" s="25" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E600" s="66"/>
       <c r="F600" s="57"/>
@@ -21599,10 +21597,10 @@
       <c r="A601" s="49"/>
       <c r="B601" s="55"/>
       <c r="C601" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D601" s="24" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E601" s="66"/>
       <c r="F601" s="57"/>
@@ -21612,10 +21610,10 @@
       <c r="A602" s="49"/>
       <c r="B602" s="55"/>
       <c r="C602" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D602" s="24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E602" s="66"/>
       <c r="F602" s="57"/>
@@ -21653,7 +21651,7 @@
       <c r="B606" s="53"/>
       <c r="C606" s="5"/>
       <c r="D606" s="26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E606" s="65"/>
       <c r="F606" s="58"/>
@@ -21663,14 +21661,14 @@
       <c r="A607" s="48"/>
       <c r="B607" s="52"/>
       <c r="C607" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D607" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="D607" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="E607" s="52"/>
       <c r="F607" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G607" s="50"/>
     </row>
@@ -21678,10 +21676,10 @@
       <c r="A608" s="49"/>
       <c r="B608" s="55"/>
       <c r="C608" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D608" s="24" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E608" s="55"/>
       <c r="F608" s="57"/>
@@ -21691,10 +21689,10 @@
       <c r="A609" s="49"/>
       <c r="B609" s="55"/>
       <c r="C609" s="24" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D609" s="25" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E609" s="55"/>
       <c r="F609" s="57"/>
@@ -21704,10 +21702,10 @@
       <c r="A610" s="49"/>
       <c r="B610" s="55"/>
       <c r="C610" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D610" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E610" s="55"/>
       <c r="F610" s="57"/>
@@ -21722,12 +21720,12 @@
       <c r="F611" s="57"/>
       <c r="G611" s="50"/>
     </row>
-    <row r="612" spans="1:7" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="181" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A612" s="51"/>
       <c r="B612" s="53"/>
       <c r="C612" s="5"/>
       <c r="D612" s="20" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E612" s="53"/>
       <c r="F612" s="58"/>
@@ -21735,7 +21733,7 @@
     </row>
     <row r="613" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A613" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B613" s="46"/>
       <c r="C613" s="46"/>
@@ -21746,10 +21744,10 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B614" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B614" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C614" s="52"/>
       <c r="D614" s="52"/>
@@ -21760,7 +21758,7 @@
     <row r="615" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A615" s="49"/>
       <c r="B615" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C615" s="55"/>
       <c r="D615" s="55"/>
@@ -21770,7 +21768,7 @@
     </row>
     <row r="616" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B616" s="4"/>
       <c r="C616" s="55"/>
@@ -21790,7 +21788,7 @@
     </row>
     <row r="618" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A618" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B618" s="5"/>
       <c r="C618" s="53"/>
@@ -21803,14 +21801,14 @@
       <c r="A619" s="48"/>
       <c r="B619" s="52"/>
       <c r="C619" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D619" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E619" s="52"/>
       <c r="F619" s="56" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G619" s="50"/>
     </row>
@@ -21818,10 +21816,10 @@
       <c r="A620" s="49"/>
       <c r="B620" s="55"/>
       <c r="C620" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D620" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E620" s="55"/>
       <c r="F620" s="57"/>
@@ -21831,10 +21829,10 @@
       <c r="A621" s="49"/>
       <c r="B621" s="55"/>
       <c r="C621" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D621" s="24" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E621" s="55"/>
       <c r="F621" s="57"/>
@@ -21844,10 +21842,10 @@
       <c r="A622" s="49"/>
       <c r="B622" s="55"/>
       <c r="C622" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D622" s="24" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E622" s="55"/>
       <c r="F622" s="57"/>
@@ -21867,7 +21865,7 @@
       <c r="B624" s="55"/>
       <c r="C624" s="4"/>
       <c r="D624" s="38" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E624" s="55"/>
       <c r="F624" s="57"/>
@@ -21905,7 +21903,7 @@
       <c r="B628" s="53"/>
       <c r="C628" s="5"/>
       <c r="D628" s="26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E628" s="53"/>
       <c r="F628" s="58"/>
@@ -21915,14 +21913,14 @@
       <c r="A629" s="48"/>
       <c r="B629" s="52"/>
       <c r="C629" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D629" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E629" s="69"/>
       <c r="F629" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G629" s="50"/>
     </row>
@@ -21930,10 +21928,10 @@
       <c r="A630" s="49"/>
       <c r="B630" s="55"/>
       <c r="C630" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D630" s="24" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E630" s="70"/>
       <c r="F630" s="57"/>
@@ -21943,10 +21941,10 @@
       <c r="A631" s="49"/>
       <c r="B631" s="55"/>
       <c r="C631" s="24" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D631" s="25" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E631" s="70"/>
       <c r="F631" s="57"/>
@@ -21956,10 +21954,10 @@
       <c r="A632" s="49"/>
       <c r="B632" s="55"/>
       <c r="C632" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D632" s="24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E632" s="70"/>
       <c r="F632" s="57"/>
@@ -21992,12 +21990,12 @@
       <c r="F635" s="57"/>
       <c r="G635" s="50"/>
     </row>
-    <row r="636" spans="1:7" ht="165" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" ht="180" x14ac:dyDescent="0.2">
       <c r="A636" s="49"/>
       <c r="B636" s="55"/>
       <c r="C636" s="4"/>
       <c r="D636" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E636" s="70"/>
       <c r="F636" s="57"/>
@@ -22017,7 +22015,7 @@
       <c r="B638" s="53"/>
       <c r="C638" s="5"/>
       <c r="D638" s="26" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E638" s="71"/>
       <c r="F638" s="58"/>
@@ -22027,14 +22025,14 @@
       <c r="A639" s="48"/>
       <c r="B639" s="52"/>
       <c r="C639" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D639" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E639" s="52"/>
       <c r="F639" s="56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G639" s="50"/>
     </row>
@@ -22042,10 +22040,10 @@
       <c r="A640" s="49"/>
       <c r="B640" s="55"/>
       <c r="C640" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D640" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E640" s="55"/>
       <c r="F640" s="57"/>
@@ -22055,10 +22053,10 @@
       <c r="A641" s="49"/>
       <c r="B641" s="55"/>
       <c r="C641" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D641" s="24" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E641" s="55"/>
       <c r="F641" s="57"/>
@@ -22068,10 +22066,10 @@
       <c r="A642" s="49"/>
       <c r="B642" s="55"/>
       <c r="C642" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D642" s="24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E642" s="55"/>
       <c r="F642" s="57"/>
@@ -22091,7 +22089,7 @@
       <c r="B644" s="55"/>
       <c r="C644" s="4"/>
       <c r="D644" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E644" s="55"/>
       <c r="F644" s="57"/>
@@ -22129,7 +22127,7 @@
       <c r="B648" s="55"/>
       <c r="C648" s="4"/>
       <c r="D648" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E648" s="55"/>
       <c r="F648" s="57"/>
@@ -22149,7 +22147,7 @@
       <c r="B650" s="53"/>
       <c r="C650" s="5"/>
       <c r="D650" s="26" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E650" s="53"/>
       <c r="F650" s="58"/>
@@ -22159,14 +22157,14 @@
       <c r="A651" s="48"/>
       <c r="B651" s="52"/>
       <c r="C651" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D651" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E651" s="52"/>
       <c r="F651" s="56" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G651" s="50"/>
     </row>
@@ -22174,23 +22172,23 @@
       <c r="A652" s="49"/>
       <c r="B652" s="55"/>
       <c r="C652" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D652" s="24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E652" s="55"/>
       <c r="F652" s="57"/>
       <c r="G652" s="50"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A653" s="49"/>
       <c r="B653" s="55"/>
       <c r="C653" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D653" s="24" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E653" s="55"/>
       <c r="F653" s="57"/>
@@ -22200,10 +22198,10 @@
       <c r="A654" s="49"/>
       <c r="B654" s="55"/>
       <c r="C654" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D654" s="24" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E654" s="55"/>
       <c r="F654" s="57"/>
@@ -22223,7 +22221,7 @@
       <c r="B656" s="55"/>
       <c r="C656" s="4"/>
       <c r="D656" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E656" s="55"/>
       <c r="F656" s="57"/>
@@ -22256,12 +22254,12 @@
       <c r="F659" s="57"/>
       <c r="G659" s="50"/>
     </row>
-    <row r="660" spans="1:7" ht="341" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="357" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A660" s="51"/>
       <c r="B660" s="53"/>
       <c r="C660" s="5"/>
       <c r="D660" s="26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E660" s="53"/>
       <c r="F660" s="58"/>
@@ -22271,14 +22269,14 @@
       <c r="A661" s="48"/>
       <c r="B661" s="52"/>
       <c r="C661" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D661" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E661" s="78"/>
       <c r="F661" s="56" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G661" s="50"/>
     </row>
@@ -22286,10 +22284,10 @@
       <c r="A662" s="49"/>
       <c r="B662" s="55"/>
       <c r="C662" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D662" s="24" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E662" s="33"/>
       <c r="F662" s="57"/>
@@ -22299,10 +22297,10 @@
       <c r="A663" s="49"/>
       <c r="B663" s="55"/>
       <c r="C663" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D663" s="24" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E663" s="33"/>
       <c r="F663" s="57"/>
@@ -22312,10 +22310,10 @@
       <c r="A664" s="49"/>
       <c r="B664" s="55"/>
       <c r="C664" s="24" t="s">
+        <v>538</v>
+      </c>
+      <c r="D664" s="25" t="s">
         <v>539</v>
-      </c>
-      <c r="D664" s="25" t="s">
-        <v>540</v>
       </c>
       <c r="E664" s="33"/>
       <c r="F664" s="57"/>
@@ -22339,12 +22337,12 @@
       <c r="F666" s="57"/>
       <c r="G666" s="50"/>
     </row>
-    <row r="667" spans="1:7" ht="289" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="306" x14ac:dyDescent="0.2">
       <c r="A667" s="49"/>
       <c r="B667" s="55"/>
       <c r="C667" s="3"/>
       <c r="D667" s="27" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E667" s="33"/>
       <c r="F667" s="57"/>
@@ -22361,7 +22359,7 @@
     </row>
     <row r="669" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A669" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B669" s="46"/>
       <c r="C669" s="46"/>
@@ -22372,10 +22370,10 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A670" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B670" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B670" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C670" s="52"/>
       <c r="D670" s="52"/>
@@ -22386,7 +22384,7 @@
     <row r="671" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A671" s="49"/>
       <c r="B671" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C671" s="55"/>
       <c r="D671" s="55"/>
@@ -22396,7 +22394,7 @@
     </row>
     <row r="672" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B672" s="4"/>
       <c r="C672" s="55"/>
@@ -22416,7 +22414,7 @@
     </row>
     <row r="674" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A674" s="51" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B674" s="5"/>
       <c r="C674" s="53"/>
@@ -22429,14 +22427,14 @@
       <c r="A675" s="48"/>
       <c r="B675" s="52"/>
       <c r="C675" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D675" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E675" s="52"/>
       <c r="F675" s="56" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G675" s="50"/>
     </row>
@@ -22444,10 +22442,10 @@
       <c r="A676" s="49"/>
       <c r="B676" s="55"/>
       <c r="C676" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D676" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E676" s="55"/>
       <c r="F676" s="57"/>
@@ -22457,10 +22455,10 @@
       <c r="A677" s="49"/>
       <c r="B677" s="55"/>
       <c r="C677" s="24" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D677" s="25" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E677" s="55"/>
       <c r="F677" s="57"/>
@@ -22470,10 +22468,10 @@
       <c r="A678" s="49"/>
       <c r="B678" s="55"/>
       <c r="C678" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D678" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E678" s="55"/>
       <c r="F678" s="57"/>
@@ -22511,24 +22509,24 @@
       <c r="B682" s="53"/>
       <c r="C682" s="5"/>
       <c r="D682" s="26" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E682" s="53"/>
       <c r="F682" s="58"/>
       <c r="G682" s="50"/>
     </row>
-    <row r="683" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="32" x14ac:dyDescent="0.2">
       <c r="A683" s="48"/>
       <c r="B683" s="52"/>
       <c r="C683" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D683" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E683" s="52"/>
       <c r="F683" s="56" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G683" s="50"/>
     </row>
@@ -22536,10 +22534,10 @@
       <c r="A684" s="49"/>
       <c r="B684" s="55"/>
       <c r="C684" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D684" s="24" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E684" s="55"/>
       <c r="F684" s="57"/>
@@ -22549,10 +22547,10 @@
       <c r="A685" s="49"/>
       <c r="B685" s="55"/>
       <c r="C685" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D685" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E685" s="55"/>
       <c r="F685" s="57"/>
@@ -22562,10 +22560,10 @@
       <c r="A686" s="49"/>
       <c r="B686" s="55"/>
       <c r="C686" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="D686" s="25" t="s">
         <v>552</v>
-      </c>
-      <c r="D686" s="25" t="s">
-        <v>553</v>
       </c>
       <c r="E686" s="55"/>
       <c r="F686" s="57"/>
@@ -22585,7 +22583,7 @@
       <c r="B688" s="55"/>
       <c r="C688" s="3"/>
       <c r="D688" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E688" s="55"/>
       <c r="F688" s="57"/>
@@ -22613,14 +22611,14 @@
       <c r="A691" s="48"/>
       <c r="B691" s="52"/>
       <c r="C691" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D691" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E691" s="52"/>
       <c r="F691" s="56" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G691" s="50"/>
     </row>
@@ -22628,10 +22626,10 @@
       <c r="A692" s="49"/>
       <c r="B692" s="55"/>
       <c r="C692" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D692" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E692" s="55"/>
       <c r="F692" s="57"/>
@@ -22641,10 +22639,10 @@
       <c r="A693" s="49"/>
       <c r="B693" s="55"/>
       <c r="C693" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D693" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E693" s="55"/>
       <c r="F693" s="57"/>
@@ -22654,10 +22652,10 @@
       <c r="A694" s="49"/>
       <c r="B694" s="55"/>
       <c r="C694" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D694" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E694" s="55"/>
       <c r="F694" s="57"/>
@@ -22690,12 +22688,12 @@
       <c r="F697" s="57"/>
       <c r="G697" s="50"/>
     </row>
-    <row r="698" spans="1:7" ht="226" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="241" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A698" s="51"/>
       <c r="B698" s="53"/>
       <c r="C698" s="5"/>
       <c r="D698" s="20" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E698" s="53"/>
       <c r="F698" s="58"/>
@@ -22705,14 +22703,14 @@
       <c r="A699" s="48"/>
       <c r="B699" s="52"/>
       <c r="C699" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D699" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E699" s="52"/>
       <c r="F699" s="56" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G699" s="50"/>
     </row>
@@ -22720,10 +22718,10 @@
       <c r="A700" s="49"/>
       <c r="B700" s="55"/>
       <c r="C700" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D700" s="24" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E700" s="55"/>
       <c r="F700" s="57"/>
@@ -22733,10 +22731,10 @@
       <c r="A701" s="49"/>
       <c r="B701" s="55"/>
       <c r="C701" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D701" s="24" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E701" s="55"/>
       <c r="F701" s="57"/>
@@ -22746,10 +22744,10 @@
       <c r="A702" s="49"/>
       <c r="B702" s="55"/>
       <c r="C702" s="24" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D702" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E702" s="55"/>
       <c r="F702" s="57"/>
@@ -22787,7 +22785,7 @@
       <c r="B706" s="53"/>
       <c r="C706" s="5"/>
       <c r="D706" s="20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E706" s="53"/>
       <c r="F706" s="58"/>
@@ -22797,14 +22795,14 @@
       <c r="A707" s="48"/>
       <c r="B707" s="52"/>
       <c r="C707" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D707" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E707" s="52"/>
       <c r="F707" s="56" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G707" s="50"/>
     </row>
@@ -22812,10 +22810,10 @@
       <c r="A708" s="49"/>
       <c r="B708" s="55"/>
       <c r="C708" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D708" s="24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E708" s="55"/>
       <c r="F708" s="57"/>
@@ -22825,10 +22823,10 @@
       <c r="A709" s="49"/>
       <c r="B709" s="55"/>
       <c r="C709" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D709" s="24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E709" s="55"/>
       <c r="F709" s="57"/>
@@ -22838,10 +22836,10 @@
       <c r="A710" s="49"/>
       <c r="B710" s="55"/>
       <c r="C710" s="24" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D710" s="25" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E710" s="55"/>
       <c r="F710" s="57"/>
@@ -22874,12 +22872,12 @@
       <c r="F713" s="57"/>
       <c r="G713" s="50"/>
     </row>
-    <row r="714" spans="1:7" ht="239" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="273" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A714" s="51"/>
       <c r="B714" s="53"/>
       <c r="C714" s="5"/>
       <c r="D714" s="26" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E714" s="53"/>
       <c r="F714" s="58"/>
@@ -22887,7 +22885,7 @@
     </row>
     <row r="715" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A715" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B715" s="46"/>
       <c r="C715" s="46"/>
@@ -22898,10 +22896,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A716" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B716" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B716" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C716" s="52"/>
       <c r="D716" s="52"/>
@@ -22912,7 +22910,7 @@
     <row r="717" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A717" s="49"/>
       <c r="B717" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C717" s="55"/>
       <c r="D717" s="55"/>
@@ -22922,7 +22920,7 @@
     </row>
     <row r="718" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B718" s="4"/>
       <c r="C718" s="55"/>
@@ -22942,7 +22940,7 @@
     </row>
     <row r="720" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A720" s="51" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B720" s="5"/>
       <c r="C720" s="53"/>
@@ -22955,14 +22953,14 @@
       <c r="A721" s="48"/>
       <c r="B721" s="52"/>
       <c r="C721" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D721" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E721" s="52"/>
       <c r="F721" s="56" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G721" s="50"/>
     </row>
@@ -22970,10 +22968,10 @@
       <c r="A722" s="49"/>
       <c r="B722" s="55"/>
       <c r="C722" s="24" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D722" s="25" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E722" s="55"/>
       <c r="F722" s="57"/>
@@ -22983,23 +22981,23 @@
       <c r="A723" s="49"/>
       <c r="B723" s="55"/>
       <c r="C723" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D723" s="24" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E723" s="55"/>
       <c r="F723" s="57"/>
       <c r="G723" s="50"/>
     </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A724" s="49"/>
       <c r="B724" s="55"/>
       <c r="C724" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D724" s="24" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E724" s="55"/>
       <c r="F724" s="57"/>
@@ -23032,12 +23030,12 @@
       <c r="F727" s="57"/>
       <c r="G727" s="50"/>
     </row>
-    <row r="728" spans="1:7" ht="205" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="239" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A728" s="51"/>
       <c r="B728" s="53"/>
       <c r="C728" s="5"/>
       <c r="D728" s="26" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E728" s="53"/>
       <c r="F728" s="58"/>
@@ -23047,14 +23045,14 @@
       <c r="A729" s="48"/>
       <c r="B729" s="52"/>
       <c r="C729" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D729" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E729" s="52"/>
       <c r="F729" s="56" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G729" s="50"/>
     </row>
@@ -23062,10 +23060,10 @@
       <c r="A730" s="49"/>
       <c r="B730" s="55"/>
       <c r="C730" s="24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D730" s="24" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E730" s="55"/>
       <c r="F730" s="57"/>
@@ -23075,10 +23073,10 @@
       <c r="A731" s="49"/>
       <c r="B731" s="55"/>
       <c r="C731" s="24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D731" s="24" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E731" s="55"/>
       <c r="F731" s="57"/>
@@ -23088,10 +23086,10 @@
       <c r="A732" s="49"/>
       <c r="B732" s="55"/>
       <c r="C732" s="24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D732" s="24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E732" s="55"/>
       <c r="F732" s="57"/>
@@ -23111,7 +23109,7 @@
       <c r="B734" s="55"/>
       <c r="C734" s="4"/>
       <c r="D734" s="38" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E734" s="55"/>
       <c r="F734" s="57"/>
@@ -23149,7 +23147,7 @@
       <c r="B738" s="53"/>
       <c r="C738" s="5"/>
       <c r="D738" s="26" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E738" s="53"/>
       <c r="F738" s="58"/>
@@ -23159,14 +23157,14 @@
       <c r="A739" s="48"/>
       <c r="B739" s="52"/>
       <c r="C739" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D739" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E739" s="52"/>
       <c r="F739" s="56" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G739" s="50"/>
     </row>
@@ -23174,10 +23172,10 @@
       <c r="A740" s="49"/>
       <c r="B740" s="55"/>
       <c r="C740" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D740" s="24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E740" s="55"/>
       <c r="F740" s="57"/>
@@ -23187,10 +23185,10 @@
       <c r="A741" s="49"/>
       <c r="B741" s="55"/>
       <c r="C741" s="24" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D741" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E741" s="55"/>
       <c r="F741" s="57"/>
@@ -23200,10 +23198,10 @@
       <c r="A742" s="49"/>
       <c r="B742" s="55"/>
       <c r="C742" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D742" s="24" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E742" s="55"/>
       <c r="F742" s="57"/>
@@ -23227,12 +23225,12 @@
       <c r="F744" s="57"/>
       <c r="G744" s="50"/>
     </row>
-    <row r="745" spans="1:7" ht="373" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="389" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A745" s="51"/>
       <c r="B745" s="53"/>
       <c r="C745" s="5"/>
       <c r="D745" s="26" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E745" s="53"/>
       <c r="F745" s="58"/>
@@ -23242,14 +23240,14 @@
       <c r="A746" s="48"/>
       <c r="B746" s="52"/>
       <c r="C746" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="D746" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="D746" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="E746" s="69"/>
       <c r="F746" s="56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G746" s="50"/>
     </row>
@@ -23257,10 +23255,10 @@
       <c r="A747" s="49"/>
       <c r="B747" s="55"/>
       <c r="C747" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D747" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E747" s="70"/>
       <c r="F747" s="57"/>
@@ -23270,10 +23268,10 @@
       <c r="A748" s="49"/>
       <c r="B748" s="55"/>
       <c r="C748" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D748" s="24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E748" s="70"/>
       <c r="F748" s="57"/>
@@ -23283,10 +23281,10 @@
       <c r="A749" s="49"/>
       <c r="B749" s="55"/>
       <c r="C749" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D749" s="24" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E749" s="70"/>
       <c r="F749" s="57"/>
@@ -23306,7 +23304,7 @@
       <c r="B751" s="55"/>
       <c r="C751" s="4"/>
       <c r="D751" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E751" s="70"/>
       <c r="F751" s="57"/>
@@ -23344,7 +23342,7 @@
       <c r="B755" s="53"/>
       <c r="C755" s="5"/>
       <c r="D755" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E755" s="71"/>
       <c r="F755" s="58"/>
@@ -23354,14 +23352,14 @@
       <c r="A756" s="48"/>
       <c r="B756" s="52"/>
       <c r="C756" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D756" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E756" s="52"/>
       <c r="F756" s="56" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G756" s="50"/>
     </row>
@@ -23369,10 +23367,10 @@
       <c r="A757" s="49"/>
       <c r="B757" s="55"/>
       <c r="C757" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D757" s="24" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E757" s="55"/>
       <c r="F757" s="57"/>
@@ -23382,10 +23380,10 @@
       <c r="A758" s="49"/>
       <c r="B758" s="55"/>
       <c r="C758" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D758" s="25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E758" s="55"/>
       <c r="F758" s="57"/>
@@ -23395,10 +23393,10 @@
       <c r="A759" s="49"/>
       <c r="B759" s="55"/>
       <c r="C759" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D759" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E759" s="55"/>
       <c r="F759" s="57"/>
@@ -23418,29 +23416,29 @@
       <c r="B761" s="55"/>
       <c r="C761" s="28"/>
       <c r="D761" s="36" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E761" s="55"/>
       <c r="F761" s="57"/>
       <c r="G761" s="50"/>
     </row>
-    <row r="762" spans="1:7" ht="135" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="150" x14ac:dyDescent="0.2">
       <c r="A762" s="49"/>
       <c r="B762" s="55"/>
       <c r="C762" s="4"/>
       <c r="D762" s="36" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E762" s="55"/>
       <c r="F762" s="57"/>
       <c r="G762" s="50"/>
     </row>
-    <row r="763" spans="1:7" ht="166" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="181" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A763" s="51"/>
       <c r="B763" s="53"/>
       <c r="C763" s="7"/>
       <c r="D763" s="20" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E763" s="53"/>
       <c r="F763" s="58"/>
@@ -23448,7 +23446,7 @@
     </row>
     <row r="764" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A764" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B764" s="46"/>
       <c r="C764" s="46"/>
@@ -23459,10 +23457,10 @@
     </row>
     <row r="765" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A765" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B765" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B765" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C765" s="52"/>
       <c r="D765" s="52"/>
@@ -23473,7 +23471,7 @@
     <row r="766" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A766" s="49"/>
       <c r="B766" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C766" s="55"/>
       <c r="D766" s="55"/>
@@ -23483,7 +23481,7 @@
     </row>
     <row r="767" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B767" s="4"/>
       <c r="C767" s="55"/>
@@ -23503,7 +23501,7 @@
     </row>
     <row r="769" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A769" s="51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B769" s="5"/>
       <c r="C769" s="53"/>
@@ -23516,14 +23514,14 @@
       <c r="A770" s="48"/>
       <c r="B770" s="52"/>
       <c r="C770" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D770" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E770" s="52"/>
       <c r="F770" s="56" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G770" s="50"/>
     </row>
@@ -23531,10 +23529,10 @@
       <c r="A771" s="49"/>
       <c r="B771" s="55"/>
       <c r="C771" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D771" s="24" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E771" s="55"/>
       <c r="F771" s="57"/>
@@ -23544,10 +23542,10 @@
       <c r="A772" s="49"/>
       <c r="B772" s="55"/>
       <c r="C772" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D772" s="24" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E772" s="55"/>
       <c r="F772" s="57"/>
@@ -23557,10 +23555,10 @@
       <c r="A773" s="49"/>
       <c r="B773" s="55"/>
       <c r="C773" s="24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D773" s="25" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E773" s="55"/>
       <c r="F773" s="57"/>
@@ -23575,12 +23573,12 @@
       <c r="F774" s="57"/>
       <c r="G774" s="50"/>
     </row>
-    <row r="775" spans="1:7" ht="285" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="300" x14ac:dyDescent="0.2">
       <c r="A775" s="49"/>
       <c r="B775" s="55"/>
       <c r="C775" s="3"/>
       <c r="D775" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E775" s="55"/>
       <c r="F775" s="57"/>
@@ -23631,18 +23629,18 @@
       <c r="F780" s="58"/>
       <c r="G780" s="50"/>
     </row>
-    <row r="781" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A781" s="48"/>
       <c r="B781" s="52"/>
       <c r="C781" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D781" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E781" s="52"/>
       <c r="F781" s="56" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G781" s="50"/>
     </row>
@@ -23650,10 +23648,10 @@
       <c r="A782" s="49"/>
       <c r="B782" s="55"/>
       <c r="C782" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D782" s="24" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E782" s="55"/>
       <c r="F782" s="57"/>
@@ -23663,10 +23661,10 @@
       <c r="A783" s="49"/>
       <c r="B783" s="55"/>
       <c r="C783" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D783" s="24" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E783" s="55"/>
       <c r="F783" s="57"/>
@@ -23676,10 +23674,10 @@
       <c r="A784" s="49"/>
       <c r="B784" s="55"/>
       <c r="C784" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D784" s="24" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E784" s="55"/>
       <c r="F784" s="57"/>
@@ -23699,7 +23697,7 @@
       <c r="B786" s="55"/>
       <c r="C786" s="4"/>
       <c r="D786" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E786" s="55"/>
       <c r="F786" s="57"/>
@@ -23737,7 +23735,7 @@
       <c r="B790" s="53"/>
       <c r="C790" s="5"/>
       <c r="D790" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E790" s="53"/>
       <c r="F790" s="58"/>
@@ -23747,14 +23745,14 @@
       <c r="A791" s="48"/>
       <c r="B791" s="52"/>
       <c r="C791" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D791" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E791" s="52"/>
       <c r="F791" s="56" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G791" s="50"/>
     </row>
@@ -23762,10 +23760,10 @@
       <c r="A792" s="49"/>
       <c r="B792" s="55"/>
       <c r="C792" s="24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D792" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E792" s="55"/>
       <c r="F792" s="57"/>
@@ -23775,10 +23773,10 @@
       <c r="A793" s="49"/>
       <c r="B793" s="55"/>
       <c r="C793" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D793" s="24" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E793" s="55"/>
       <c r="F793" s="57"/>
@@ -23788,10 +23786,10 @@
       <c r="A794" s="49"/>
       <c r="B794" s="55"/>
       <c r="C794" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D794" s="24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E794" s="55"/>
       <c r="F794" s="57"/>
@@ -23811,24 +23809,24 @@
       <c r="B796" s="53"/>
       <c r="C796" s="5"/>
       <c r="D796" s="20" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E796" s="53"/>
       <c r="F796" s="58"/>
       <c r="G796" s="50"/>
     </row>
-    <row r="797" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A797" s="48"/>
       <c r="B797" s="52"/>
       <c r="C797" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D797" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E797" s="52"/>
       <c r="F797" s="56" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G797" s="50"/>
     </row>
@@ -23836,10 +23834,10 @@
       <c r="A798" s="49"/>
       <c r="B798" s="55"/>
       <c r="C798" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D798" s="24" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E798" s="55"/>
       <c r="F798" s="57"/>
@@ -23849,10 +23847,10 @@
       <c r="A799" s="49"/>
       <c r="B799" s="55"/>
       <c r="C799" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D799" s="24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E799" s="55"/>
       <c r="F799" s="57"/>
@@ -23862,10 +23860,10 @@
       <c r="A800" s="49"/>
       <c r="B800" s="55"/>
       <c r="C800" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D800" s="24" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E800" s="55"/>
       <c r="F800" s="57"/>
@@ -23885,7 +23883,7 @@
       <c r="B802" s="55"/>
       <c r="C802" s="4"/>
       <c r="D802" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E802" s="55"/>
       <c r="F802" s="57"/>
@@ -23923,7 +23921,7 @@
       <c r="B806" s="55"/>
       <c r="C806" s="4"/>
       <c r="D806" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E806" s="55"/>
       <c r="F806" s="57"/>
@@ -23934,18 +23932,18 @@
       <c r="B807" s="55"/>
       <c r="C807" s="4"/>
       <c r="D807" s="36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E807" s="55"/>
       <c r="F807" s="57"/>
       <c r="G807" s="50"/>
     </row>
-    <row r="808" spans="1:7" ht="91" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="106" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A808" s="51"/>
       <c r="B808" s="53"/>
       <c r="C808" s="5"/>
       <c r="D808" s="20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E808" s="53"/>
       <c r="F808" s="58"/>
@@ -23955,14 +23953,14 @@
       <c r="A809" s="48"/>
       <c r="B809" s="52"/>
       <c r="C809" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D809" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E809" s="52"/>
       <c r="F809" s="56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G809" s="50"/>
     </row>
@@ -23970,10 +23968,10 @@
       <c r="A810" s="49"/>
       <c r="B810" s="55"/>
       <c r="C810" s="24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D810" s="24" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E810" s="55"/>
       <c r="F810" s="57"/>
@@ -23983,10 +23981,10 @@
       <c r="A811" s="49"/>
       <c r="B811" s="55"/>
       <c r="C811" s="24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D811" s="24" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E811" s="55"/>
       <c r="F811" s="57"/>
@@ -23996,10 +23994,10 @@
       <c r="A812" s="49"/>
       <c r="B812" s="55"/>
       <c r="C812" s="24" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D812" s="25" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E812" s="55"/>
       <c r="F812" s="57"/>
@@ -24028,7 +24026,7 @@
       <c r="B815" s="53"/>
       <c r="C815" s="5"/>
       <c r="D815" s="26" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E815" s="53"/>
       <c r="F815" s="58"/>
@@ -24045,10 +24043,10 @@
     </row>
     <row r="817" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A817" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B817" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B817" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C817" s="52"/>
       <c r="D817" s="52"/>
@@ -24059,7 +24057,7 @@
     <row r="818" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A818" s="49"/>
       <c r="B818" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C818" s="55"/>
       <c r="D818" s="55"/>
@@ -24069,7 +24067,7 @@
     </row>
     <row r="819" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B819" s="4"/>
       <c r="C819" s="55"/>
@@ -24089,7 +24087,7 @@
     </row>
     <row r="821" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A821" s="51" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B821" s="5"/>
       <c r="C821" s="53"/>
@@ -24102,14 +24100,14 @@
       <c r="A822" s="48"/>
       <c r="B822" s="52"/>
       <c r="C822" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D822" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E822" s="52"/>
       <c r="F822" s="56" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G822" s="77"/>
     </row>
@@ -24117,10 +24115,10 @@
       <c r="A823" s="49"/>
       <c r="B823" s="55"/>
       <c r="C823" s="24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D823" s="24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E823" s="55"/>
       <c r="F823" s="57"/>
@@ -24130,10 +24128,10 @@
       <c r="A824" s="49"/>
       <c r="B824" s="55"/>
       <c r="C824" s="24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D824" s="24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E824" s="55"/>
       <c r="F824" s="57"/>
@@ -24143,10 +24141,10 @@
       <c r="A825" s="49"/>
       <c r="B825" s="55"/>
       <c r="C825" s="24" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D825" s="25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E825" s="55"/>
       <c r="F825" s="57"/>
@@ -24179,12 +24177,12 @@
       <c r="F828" s="57"/>
       <c r="G828" s="50"/>
     </row>
-    <row r="829" spans="1:7" ht="315" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="329" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A829" s="51"/>
       <c r="B829" s="53"/>
       <c r="C829" s="5"/>
       <c r="D829" s="20" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E829" s="53"/>
       <c r="F829" s="58"/>
@@ -24194,14 +24192,14 @@
       <c r="A830" s="48"/>
       <c r="B830" s="52"/>
       <c r="C830" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D830" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E830" s="64"/>
       <c r="F830" s="56" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G830" s="50"/>
     </row>
@@ -24209,10 +24207,10 @@
       <c r="A831" s="49"/>
       <c r="B831" s="55"/>
       <c r="C831" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D831" s="24" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E831" s="66"/>
       <c r="F831" s="57"/>
@@ -24222,10 +24220,10 @@
       <c r="A832" s="49"/>
       <c r="B832" s="55"/>
       <c r="C832" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D832" s="24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E832" s="66"/>
       <c r="F832" s="57"/>
@@ -24235,10 +24233,10 @@
       <c r="A833" s="49"/>
       <c r="B833" s="55"/>
       <c r="C833" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D833" s="24" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E833" s="66"/>
       <c r="F833" s="57"/>
@@ -24258,7 +24256,7 @@
       <c r="B835" s="55"/>
       <c r="C835" s="4"/>
       <c r="D835" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E835" s="66"/>
       <c r="F835" s="57"/>
@@ -24287,7 +24285,7 @@
       <c r="B838" s="55"/>
       <c r="C838" s="4"/>
       <c r="D838" s="36" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E838" s="66"/>
       <c r="F838" s="57"/>
@@ -24298,7 +24296,7 @@
       <c r="B839" s="53"/>
       <c r="C839" s="5"/>
       <c r="D839" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E839" s="65"/>
       <c r="F839" s="58"/>
@@ -24308,14 +24306,14 @@
       <c r="A840" s="48"/>
       <c r="B840" s="52"/>
       <c r="C840" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E840" s="52"/>
       <c r="F840" s="56" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G840" s="50"/>
     </row>
@@ -24323,10 +24321,10 @@
       <c r="A841" s="49"/>
       <c r="B841" s="55"/>
       <c r="C841" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D841" s="24" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E841" s="55"/>
       <c r="F841" s="57"/>
@@ -24336,10 +24334,10 @@
       <c r="A842" s="49"/>
       <c r="B842" s="55"/>
       <c r="C842" s="24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D842" s="24" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E842" s="55"/>
       <c r="F842" s="57"/>
@@ -24349,10 +24347,10 @@
       <c r="A843" s="49"/>
       <c r="B843" s="55"/>
       <c r="C843" s="24" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D843" s="25" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E843" s="55"/>
       <c r="F843" s="57"/>
@@ -24390,7 +24388,7 @@
       <c r="B847" s="53"/>
       <c r="C847" s="5"/>
       <c r="D847" s="26" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E847" s="53"/>
       <c r="F847" s="58"/>
@@ -24400,14 +24398,14 @@
       <c r="A848" s="48"/>
       <c r="B848" s="52"/>
       <c r="C848" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D848" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E848" s="52"/>
       <c r="F848" s="56" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G848" s="50"/>
     </row>
@@ -24415,10 +24413,10 @@
       <c r="A849" s="49"/>
       <c r="B849" s="55"/>
       <c r="C849" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D849" s="24" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E849" s="55"/>
       <c r="F849" s="57"/>
@@ -24428,10 +24426,10 @@
       <c r="A850" s="49"/>
       <c r="B850" s="55"/>
       <c r="C850" s="24" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D850" s="25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E850" s="55"/>
       <c r="F850" s="57"/>
@@ -24441,10 +24439,10 @@
       <c r="A851" s="49"/>
       <c r="B851" s="55"/>
       <c r="C851" s="24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D851" s="24" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E851" s="55"/>
       <c r="F851" s="57"/>
@@ -24477,12 +24475,12 @@
       <c r="F854" s="57"/>
       <c r="G854" s="50"/>
     </row>
-    <row r="855" spans="1:7" ht="222" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="239" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A855" s="51"/>
       <c r="B855" s="53"/>
       <c r="C855" s="5"/>
       <c r="D855" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E855" s="53"/>
       <c r="F855" s="58"/>
@@ -24492,14 +24490,14 @@
       <c r="A856" s="48"/>
       <c r="B856" s="52"/>
       <c r="C856" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D856" s="3" t="s">
         <v>667</v>
-      </c>
-      <c r="D856" s="3" t="s">
-        <v>668</v>
       </c>
       <c r="E856" s="52"/>
       <c r="F856" s="56" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G856" s="50"/>
     </row>
@@ -24507,10 +24505,10 @@
       <c r="A857" s="49"/>
       <c r="B857" s="55"/>
       <c r="C857" s="24" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D857" s="25" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E857" s="55"/>
       <c r="F857" s="57"/>
@@ -24520,10 +24518,10 @@
       <c r="A858" s="49"/>
       <c r="B858" s="55"/>
       <c r="C858" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D858" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E858" s="55"/>
       <c r="F858" s="57"/>
@@ -24533,10 +24531,10 @@
       <c r="A859" s="49"/>
       <c r="B859" s="55"/>
       <c r="C859" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D859" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E859" s="55"/>
       <c r="F859" s="57"/>
@@ -24569,12 +24567,12 @@
       <c r="F862" s="57"/>
       <c r="G862" s="50"/>
     </row>
-    <row r="863" spans="1:7" ht="324" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="341" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A863" s="51"/>
       <c r="B863" s="53"/>
       <c r="C863" s="5"/>
       <c r="D863" s="26" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E863" s="53"/>
       <c r="F863" s="58"/>
@@ -24582,7 +24580,7 @@
     </row>
     <row r="864" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A864" s="45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B864" s="46"/>
       <c r="C864" s="46"/>
@@ -24593,10 +24591,10 @@
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A865" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="B865" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B865" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C865" s="52"/>
       <c r="D865" s="52"/>
@@ -24607,7 +24605,7 @@
     <row r="866" spans="1:7" ht="90" x14ac:dyDescent="0.2">
       <c r="A866" s="49"/>
       <c r="B866" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C866" s="55"/>
       <c r="D866" s="55"/>
@@ -24617,7 +24615,7 @@
     </row>
     <row r="867" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B867" s="4"/>
       <c r="C867" s="55"/>
@@ -24637,7 +24635,7 @@
     </row>
     <row r="869" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A869" s="51" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B869" s="5"/>
       <c r="C869" s="53"/>
@@ -24650,14 +24648,14 @@
       <c r="A870" s="48"/>
       <c r="B870" s="52"/>
       <c r="C870" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D870" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E870" s="52"/>
       <c r="F870" s="56" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G870" s="50"/>
     </row>
@@ -24665,23 +24663,23 @@
       <c r="A871" s="49"/>
       <c r="B871" s="55"/>
       <c r="C871" s="24" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D871" s="25" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E871" s="55"/>
       <c r="F871" s="57"/>
       <c r="G871" s="50"/>
     </row>
-    <row r="872" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A872" s="49"/>
       <c r="B872" s="55"/>
       <c r="C872" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D872" s="24" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E872" s="55"/>
       <c r="F872" s="57"/>
@@ -24691,10 +24689,10 @@
       <c r="A873" s="49"/>
       <c r="B873" s="55"/>
       <c r="C873" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D873" s="24" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E873" s="55"/>
       <c r="F873" s="57"/>
@@ -24709,12 +24707,12 @@
       <c r="F874" s="57"/>
       <c r="G874" s="50"/>
     </row>
-    <row r="875" spans="1:7" ht="241" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="256" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A875" s="51"/>
       <c r="B875" s="53"/>
       <c r="C875" s="5"/>
       <c r="D875" s="20" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E875" s="53"/>
       <c r="F875" s="58"/>
@@ -24724,14 +24722,14 @@
       <c r="A876" s="48"/>
       <c r="B876" s="52"/>
       <c r="C876" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D876" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E876" s="52"/>
       <c r="F876" s="56" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G876" s="50"/>
     </row>
@@ -24739,10 +24737,10 @@
       <c r="A877" s="49"/>
       <c r="B877" s="55"/>
       <c r="C877" s="24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D877" s="24" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E877" s="55"/>
       <c r="F877" s="57"/>
@@ -24752,10 +24750,10 @@
       <c r="A878" s="49"/>
       <c r="B878" s="55"/>
       <c r="C878" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D878" s="24" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E878" s="55"/>
       <c r="F878" s="57"/>
@@ -24765,10 +24763,10 @@
       <c r="A879" s="49"/>
       <c r="B879" s="55"/>
       <c r="C879" s="24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D879" s="24" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E879" s="55"/>
       <c r="F879" s="57"/>
@@ -24788,7 +24786,7 @@
       <c r="B881" s="55"/>
       <c r="C881" s="3"/>
       <c r="D881" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E881" s="55"/>
       <c r="F881" s="57"/>
@@ -24826,7 +24824,7 @@
       <c r="B885" s="53"/>
       <c r="C885" s="5"/>
       <c r="D885" s="26" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E885" s="53"/>
       <c r="F885" s="58"/>
@@ -24836,14 +24834,14 @@
       <c r="A886" s="48"/>
       <c r="B886" s="52"/>
       <c r="C886" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D886" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E886" s="52"/>
       <c r="F886" s="56" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G886" s="50"/>
     </row>
@@ -24851,10 +24849,10 @@
       <c r="A887" s="49"/>
       <c r="B887" s="55"/>
       <c r="C887" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D887" s="24" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E887" s="55"/>
       <c r="F887" s="57"/>
@@ -24864,10 +24862,10 @@
       <c r="A888" s="49"/>
       <c r="B888" s="55"/>
       <c r="C888" s="24" t="s">
+        <v>689</v>
+      </c>
+      <c r="D888" s="24" t="s">
         <v>690</v>
-      </c>
-      <c r="D888" s="24" t="s">
-        <v>691</v>
       </c>
       <c r="E888" s="55"/>
       <c r="F888" s="57"/>
@@ -24877,10 +24875,10 @@
       <c r="A889" s="49"/>
       <c r="B889" s="55"/>
       <c r="C889" s="24" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D889" s="25" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E889" s="55"/>
       <c r="F889" s="57"/>
@@ -24900,24 +24898,24 @@
       <c r="B891" s="53"/>
       <c r="C891" s="5"/>
       <c r="D891" s="20" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E891" s="53"/>
       <c r="F891" s="58"/>
       <c r="G891" s="50"/>
     </row>
-    <row r="892" spans="1:7" ht="45" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A892" s="48"/>
       <c r="B892" s="52"/>
       <c r="C892" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D892" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E892" s="64"/>
       <c r="F892" s="56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G892" s="50"/>
     </row>
@@ -24925,10 +24923,10 @@
       <c r="A893" s="49"/>
       <c r="B893" s="55"/>
       <c r="C893" s="24" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D893" s="25" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E893" s="66"/>
       <c r="F893" s="57"/>
@@ -24938,10 +24936,10 @@
       <c r="A894" s="49"/>
       <c r="B894" s="55"/>
       <c r="C894" s="24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D894" s="24" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E894" s="66"/>
       <c r="F894" s="57"/>
@@ -24951,10 +24949,10 @@
       <c r="A895" s="49"/>
       <c r="B895" s="55"/>
       <c r="C895" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D895" s="24" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E895" s="66"/>
       <c r="F895" s="57"/>
@@ -24969,12 +24967,12 @@
       <c r="F896" s="57"/>
       <c r="G896" s="50"/>
     </row>
-    <row r="897" spans="1:7" ht="315" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="329" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A897" s="51"/>
       <c r="B897" s="53"/>
       <c r="C897" s="5"/>
       <c r="D897" s="20" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E897" s="65"/>
       <c r="F897" s="58"/>
@@ -24984,14 +24982,14 @@
       <c r="A898" s="48"/>
       <c r="B898" s="52"/>
       <c r="C898" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D898" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E898" s="52"/>
       <c r="F898" s="56" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G898" s="50"/>
     </row>
@@ -24999,10 +24997,10 @@
       <c r="A899" s="49"/>
       <c r="B899" s="55"/>
       <c r="C899" s="24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D899" s="24" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E899" s="55"/>
       <c r="F899" s="57"/>
@@ -25012,10 +25010,10 @@
       <c r="A900" s="49"/>
       <c r="B900" s="55"/>
       <c r="C900" s="24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D900" s="24" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E900" s="55"/>
       <c r="F900" s="57"/>
@@ -25025,10 +25023,10 @@
       <c r="A901" s="49"/>
       <c r="B901" s="55"/>
       <c r="C901" s="24" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D901" s="25" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E901" s="55"/>
       <c r="F901" s="57"/>
@@ -25048,7 +25046,7 @@
       <c r="B903" s="53"/>
       <c r="C903" s="5"/>
       <c r="D903" s="20" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E903" s="53"/>
       <c r="F903" s="58"/>
